--- a/Web Tools Table.xlsx
+++ b/Web Tools Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashle\Documents\Air Quality Lab\Art + Eng Project\ai-tool-persona-quest-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54166FDB-6871-493C-B55E-F9EAAC559247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA0AA55-A666-4F94-8667-A21D946B6A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="All Tools Database Table" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Tools Database Table'!$C$1:$K$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Tools Database Table'!$C$1:$K$148</definedName>
     <definedName name="Slicer_AI_Dependency">#N/A</definedName>
     <definedName name="Slicer_Complexity">#N/A</definedName>
     <definedName name="Slicer_Price">#N/A</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="490">
   <si>
     <t>Description</t>
   </si>
@@ -1500,6 +1500,18 @@
   </si>
   <si>
     <t>education platforms &amp; engagement</t>
+  </si>
+  <si>
+    <t>Character focused, Professional rendering, Large content marketplace</t>
+  </si>
+  <si>
+    <t>Content purchases add up, Learning curve, Resource intensive</t>
+  </si>
+  <si>
+    <t>Free 3D character creation, posing, and scene rendering software</t>
+  </si>
+  <si>
+    <t>Daz Studio</t>
   </si>
 </sst>
 </file>
@@ -3871,8 +3883,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2AA2003-58F9-415C-BB5F-F7855C3F83B2}" name="Table1" displayName="Table1" ref="C1:K147" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="C1:K147" xr:uid="{D2AA2003-58F9-415C-BB5F-F7855C3F83B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2AA2003-58F9-415C-BB5F-F7855C3F83B2}" name="Table1" displayName="Table1" ref="C1:K148" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="C1:K148" xr:uid="{D2AA2003-58F9-415C-BB5F-F7855C3F83B2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{55A45D53-C0FE-4C62-A970-82342676D355}" name="Support Type" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{46885051-F187-44E0-883B-DC6DA5AA0AF9}" name="Use-Case Category" dataDxfId="7"/>
@@ -4150,13 +4162,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E640E2B-0A26-4A8F-8595-D60961988BB0}">
-  <dimension ref="A1:L174"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4630,32 +4642,32 @@
     </row>
     <row r="16" spans="1:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="79"/>
-      <c r="C16" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>168</v>
+      <c r="C16" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -4663,28 +4675,28 @@
       <c r="C17" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="23" t="s">
+      <c r="G17" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="19" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4693,29 +4705,29 @@
       <c r="C18" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="18" t="s">
+      <c r="D18" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>173</v>
+      <c r="F18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -4723,28 +4735,28 @@
       <c r="C19" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="23" t="s">
+      <c r="G19" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="19" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4753,29 +4765,29 @@
       <c r="C20" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>177</v>
+      <c r="F20" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -4783,28 +4795,28 @@
       <c r="C21" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="23" t="s">
+      <c r="G21" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="19" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4813,29 +4825,29 @@
       <c r="C22" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="D22" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>181</v>
+      <c r="F22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -4843,28 +4855,28 @@
       <c r="C23" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="E23" s="21" t="s">
+      <c r="D23" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="23" t="s">
+      <c r="G23" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4873,29 +4885,29 @@
       <c r="C24" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="18" t="s">
+      <c r="D24" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>185</v>
+      <c r="F24" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -4903,29 +4915,29 @@
       <c r="C25" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="67" t="s">
+      <c r="D25" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>393</v>
+      <c r="H25" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -4940,22 +4952,22 @@
         <v>479</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G26" s="67" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -4963,29 +4975,29 @@
       <c r="C27" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="E27" s="18" t="s">
+      <c r="D27" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>401</v>
+      <c r="F27" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -4994,28 +5006,28 @@
         <v>476</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5030,22 +5042,22 @@
         <v>480</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G29" s="65" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5054,28 +5066,28 @@
         <v>476</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>483</v>
+        <v>166</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5087,7 +5099,7 @@
         <v>483</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>17</v>
@@ -5096,16 +5108,16 @@
         <v>12</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5113,29 +5125,29 @@
       <c r="C32" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="E32" s="27" t="s">
+      <c r="D32" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>421</v>
+      <c r="G32" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5147,25 +5159,25 @@
         <v>485</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G33" s="68" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5180,22 +5192,22 @@
         <v>479</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G34" s="68" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5203,29 +5215,29 @@
       <c r="C35" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="F35" s="19" t="s">
+      <c r="D35" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="F35" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>433</v>
+      <c r="G35" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5240,22 +5252,22 @@
         <v>478</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G36" s="65" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5270,22 +5282,22 @@
         <v>478</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G37" s="65" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5293,29 +5305,29 @@
       <c r="C38" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="E38" s="21" t="s">
+      <c r="D38" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F38" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="J38" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="K38" s="22" t="s">
-        <v>445</v>
+      <c r="F38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5323,29 +5335,29 @@
       <c r="C39" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="E39" s="18" t="s">
+      <c r="D39" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>449</v>
+      <c r="F39" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5354,7 +5366,7 @@
         <v>476</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>478</v>
@@ -5366,16 +5378,16 @@
         <v>12</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5383,29 +5395,29 @@
       <c r="C41" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="K41" s="25" t="s">
-        <v>457</v>
+      <c r="D41" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5420,22 +5432,22 @@
         <v>479</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="G42" s="67" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K42" s="25" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5456,16 +5468,16 @@
         <v>12</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K43" s="25" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5480,52 +5492,52 @@
         <v>479</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>22</v>
+        <v>482</v>
       </c>
       <c r="G44" s="67" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K44" s="25" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="79"/>
-      <c r="C45" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="J45" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="K45" s="32" t="s">
-        <v>216</v>
+      <c r="C45" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="K45" s="25" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5540,22 +5552,22 @@
         <v>478</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="G46" s="69" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="33" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5570,22 +5582,22 @@
         <v>478</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="G47" s="69" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K47" s="32" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5600,22 +5612,22 @@
         <v>478</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="G48" s="69" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H48" s="33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J48" s="32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5630,22 +5642,22 @@
         <v>478</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="G49" s="69" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H49" s="33" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J49" s="32" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5666,16 +5678,16 @@
         <v>12</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I50" s="32" t="s">
         <v>230</v>
       </c>
       <c r="J50" s="32" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5696,16 +5708,16 @@
         <v>12</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>230</v>
       </c>
       <c r="J51" s="32" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5713,29 +5725,29 @@
       <c r="C52" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="D52" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="F52" s="35" t="s">
+      <c r="D52" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="F52" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="I52" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J52" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="K52" s="35" t="s">
-        <v>251</v>
+      <c r="G52" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J52" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="K52" s="32" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5747,25 +5759,25 @@
         <v>249</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="G53" s="70" t="s">
         <v>32</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I53" s="35" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J53" s="35" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5777,25 +5789,25 @@
         <v>249</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>22</v>
+        <v>482</v>
       </c>
       <c r="G54" s="70" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I54" s="35" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J54" s="35" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K54" s="35" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5807,25 +5819,25 @@
         <v>249</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F55" s="35" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G55" s="70" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I55" s="35" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J55" s="35" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K55" s="35" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5840,22 +5852,22 @@
         <v>478</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G56" s="70" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I56" s="35" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J56" s="35" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K56" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5867,7 +5879,7 @@
         <v>249</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F57" s="35" t="s">
         <v>17</v>
@@ -5876,16 +5888,16 @@
         <v>12</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I57" s="35" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J57" s="35" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K57" s="35" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5897,25 +5909,25 @@
         <v>249</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F58" s="35" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="70" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I58" s="35" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J58" s="35" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5933,19 +5945,19 @@
         <v>17</v>
       </c>
       <c r="G59" s="70" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I59" s="35" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J59" s="35" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5966,16 +5978,16 @@
         <v>12</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I60" s="35" t="s">
         <v>277</v>
       </c>
       <c r="J60" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5996,16 +6008,16 @@
         <v>12</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I61" s="35" t="s">
         <v>277</v>
       </c>
       <c r="J61" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6020,22 +6032,22 @@
         <v>478</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="G62" s="70" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I62" s="35" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J62" s="35" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K62" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6050,22 +6062,22 @@
         <v>478</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G63" s="70" t="s">
         <v>12</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I63" s="35" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J63" s="35" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6080,52 +6092,52 @@
         <v>478</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G64" s="70" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I64" s="35" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J64" s="35" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K64" s="35" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="79"/>
-      <c r="C65" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="38" t="s">
+      <c r="C65" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E65" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="F65" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J65" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K65" s="39" t="s">
-        <v>14</v>
+      <c r="F65" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="I65" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J65" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="K65" s="35" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6140,22 +6152,22 @@
         <v>478</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G66" s="71" t="s">
         <v>12</v>
       </c>
       <c r="H66" s="40" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J66" s="39" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K66" s="39" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6170,22 +6182,22 @@
         <v>478</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G67" s="71" t="s">
         <v>12</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J67" s="39" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K67" s="39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6200,22 +6212,22 @@
         <v>478</v>
       </c>
       <c r="F68" s="39" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G68" s="71" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I68" s="39" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J68" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K68" s="39" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6227,25 +6239,25 @@
         <v>10</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F69" s="39" t="s">
         <v>17</v>
       </c>
       <c r="G69" s="71" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H69" s="40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I69" s="39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J69" s="39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K69" s="39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6263,19 +6275,19 @@
         <v>17</v>
       </c>
       <c r="G70" s="71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H70" s="40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I70" s="39" t="s">
         <v>31</v>
       </c>
       <c r="J70" s="39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K70" s="39" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6293,19 +6305,19 @@
         <v>17</v>
       </c>
       <c r="G71" s="71" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H71" s="40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I71" s="39" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J71" s="39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K71" s="39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6317,25 +6329,25 @@
         <v>10</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="G72" s="71" t="s">
         <v>12</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I72" s="39" t="s">
         <v>27</v>
       </c>
       <c r="J72" s="39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K72" s="39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6350,22 +6362,22 @@
         <v>478</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="G73" s="71" t="s">
         <v>12</v>
       </c>
       <c r="H73" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I73" s="39" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J73" s="39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K73" s="39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6373,29 +6385,29 @@
       <c r="C74" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="E74" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="F74" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I74" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J74" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="K74" s="42" t="s">
-        <v>52</v>
+      <c r="D74" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J74" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74" s="39" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6410,22 +6422,22 @@
         <v>479</v>
       </c>
       <c r="F75" s="42" t="s">
-        <v>482</v>
+        <v>11</v>
       </c>
       <c r="G75" s="72" t="s">
         <v>32</v>
       </c>
       <c r="H75" s="43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I75" s="42" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J75" s="42" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K75" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6437,25 +6449,25 @@
         <v>471</v>
       </c>
       <c r="E76" s="41" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F76" s="42" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="G76" s="72" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H76" s="43" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="I76" s="42" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="J76" s="42" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="K76" s="42" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6470,22 +6482,22 @@
         <v>478</v>
       </c>
       <c r="F77" s="42" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="G77" s="72" t="s">
         <v>12</v>
       </c>
       <c r="H77" s="43" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I77" s="42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J77" s="42" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K77" s="42" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6500,22 +6512,22 @@
         <v>478</v>
       </c>
       <c r="F78" s="42" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G78" s="72" t="s">
         <v>12</v>
       </c>
       <c r="H78" s="43" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I78" s="42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J78" s="42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K78" s="42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6530,22 +6542,22 @@
         <v>478</v>
       </c>
       <c r="F79" s="42" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G79" s="72" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I79" s="42" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J79" s="42" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K79" s="42" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6553,29 +6565,29 @@
       <c r="C80" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="44" t="s">
-        <v>484</v>
-      </c>
-      <c r="E80" s="44" t="s">
+      <c r="D80" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="E80" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="F80" s="45" t="s">
-        <v>482</v>
-      </c>
-      <c r="G80" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="H80" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="I80" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="J80" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="K80" s="45" t="s">
-        <v>228</v>
+      <c r="F80" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="I80" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="J80" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="K80" s="42" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6590,22 +6602,22 @@
         <v>478</v>
       </c>
       <c r="F81" s="45" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="G81" s="73" t="s">
         <v>36</v>
       </c>
       <c r="H81" s="46" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="I81" s="45" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="J81" s="45" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="K81" s="45" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6626,46 +6638,46 @@
         <v>36</v>
       </c>
       <c r="H82" s="46" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I82" s="45" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J82" s="45" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K82" s="45" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="79"/>
-      <c r="C83" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E83" s="48" t="s">
+      <c r="C83" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="44" t="s">
+        <v>484</v>
+      </c>
+      <c r="E83" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="F83" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="I83" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="J83" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="K83" s="49" t="s">
-        <v>168</v>
+      <c r="F83" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="I83" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="J83" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="K83" s="45" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6680,22 +6692,22 @@
         <v>478</v>
       </c>
       <c r="F84" s="49" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="G84" s="74" t="s">
         <v>12</v>
       </c>
       <c r="H84" s="50" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I84" s="49" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J84" s="49" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K84" s="49" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6710,22 +6722,22 @@
         <v>478</v>
       </c>
       <c r="F85" s="49" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G85" s="74" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="50" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I85" s="49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J85" s="49" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K85" s="49" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6740,22 +6752,22 @@
         <v>478</v>
       </c>
       <c r="F86" s="49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G86" s="74" t="s">
         <v>12</v>
       </c>
       <c r="H86" s="50" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I86" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J86" s="49" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K86" s="49" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6770,22 +6782,22 @@
         <v>478</v>
       </c>
       <c r="F87" s="49" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G87" s="74" t="s">
         <v>12</v>
       </c>
       <c r="H87" s="50" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I87" s="49" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J87" s="49" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K87" s="49" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6800,22 +6812,22 @@
         <v>478</v>
       </c>
       <c r="F88" s="49" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="G88" s="74" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H88" s="50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I88" s="49" t="s">
         <v>187</v>
       </c>
       <c r="J88" s="49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K88" s="49" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6830,22 +6842,22 @@
         <v>478</v>
       </c>
       <c r="F89" s="49" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G89" s="74" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H89" s="50" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I89" s="49" t="s">
         <v>187</v>
       </c>
       <c r="J89" s="49" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K89" s="49" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6860,22 +6872,22 @@
         <v>478</v>
       </c>
       <c r="F90" s="49" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="G90" s="74" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H90" s="50" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I90" s="49" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="J90" s="49" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K90" s="49" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6890,22 +6902,22 @@
         <v>478</v>
       </c>
       <c r="F91" s="49" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G91" s="74" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H91" s="50" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I91" s="49" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J91" s="49" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K91" s="49" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6923,19 +6935,19 @@
         <v>17</v>
       </c>
       <c r="G92" s="74" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H92" s="50" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I92" s="49" t="s">
         <v>201</v>
       </c>
       <c r="J92" s="49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K92" s="49" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6953,49 +6965,49 @@
         <v>17</v>
       </c>
       <c r="G93" s="74" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H93" s="50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I93" s="49" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J93" s="49" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K93" s="49" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="79"/>
-      <c r="C94" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="52" t="s">
+      <c r="C94" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E94" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="F94" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="I94" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J94" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="K94" s="53" t="s">
-        <v>24</v>
+      <c r="F94" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="I94" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="J94" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="K94" s="49" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7010,22 +7022,22 @@
         <v>478</v>
       </c>
       <c r="F95" s="53" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G95" s="75" t="s">
         <v>12</v>
       </c>
       <c r="H95" s="54" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I95" s="53" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J95" s="53" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K95" s="53" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7037,25 +7049,25 @@
         <v>10</v>
       </c>
       <c r="E96" s="52" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F96" s="53" t="s">
         <v>17</v>
       </c>
       <c r="G96" s="75" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H96" s="54" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I96" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J96" s="53" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K96" s="53" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7073,19 +7085,19 @@
         <v>17</v>
       </c>
       <c r="G97" s="75" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H97" s="54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I97" s="53" t="s">
         <v>31</v>
       </c>
       <c r="J97" s="53" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K97" s="53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7103,19 +7115,19 @@
         <v>17</v>
       </c>
       <c r="G98" s="75" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H98" s="54" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I98" s="53" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J98" s="53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K98" s="53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7127,25 +7139,25 @@
         <v>10</v>
       </c>
       <c r="E99" s="52" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F99" s="53" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="G99" s="75" t="s">
         <v>12</v>
       </c>
       <c r="H99" s="54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I99" s="53" t="s">
         <v>27</v>
       </c>
       <c r="J99" s="53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K99" s="53" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7153,29 +7165,29 @@
       <c r="C100" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E100" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="F100" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="I100" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="J100" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="K100" s="56" t="s">
-        <v>61</v>
+      <c r="D100" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="F100" s="53" t="s">
+        <v>482</v>
+      </c>
+      <c r="G100" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I100" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J100" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="K100" s="53" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7190,22 +7202,22 @@
         <v>479</v>
       </c>
       <c r="F101" s="56" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G101" s="76" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H101" s="57" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I101" s="56" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J101" s="56" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K101" s="56" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7220,22 +7232,22 @@
         <v>479</v>
       </c>
       <c r="F102" s="56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G102" s="76" t="s">
         <v>32</v>
       </c>
       <c r="H102" s="57" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I102" s="56" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J102" s="56" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K102" s="56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7253,19 +7265,19 @@
         <v>22</v>
       </c>
       <c r="G103" s="76" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H103" s="57" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I103" s="56" t="s">
         <v>67</v>
       </c>
       <c r="J103" s="56" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K103" s="56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7280,22 +7292,22 @@
         <v>479</v>
       </c>
       <c r="F104" s="56" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G104" s="76" t="s">
         <v>12</v>
       </c>
       <c r="H104" s="57" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I104" s="56" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J104" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K104" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7303,29 +7315,29 @@
       <c r="C105" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D105" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="E105" s="58" t="s">
-        <v>480</v>
-      </c>
-      <c r="F105" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G105" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="H105" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="I105" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="J105" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="K105" s="59" t="s">
-        <v>81</v>
+      <c r="D105" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E105" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="F105" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I105" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="J105" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="K105" s="56" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7333,28 +7345,28 @@
       <c r="C106" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D106" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E106" s="55" t="s">
+      <c r="D106" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="E106" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="F106" s="56" t="s">
+      <c r="F106" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="G106" s="76" t="s">
+      <c r="G106" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="H106" s="57" t="s">
+      <c r="H106" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="I106" s="56" t="s">
+      <c r="I106" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="J106" s="56" t="s">
+      <c r="J106" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="K106" s="56" t="s">
+      <c r="K106" s="59" t="s">
         <v>81</v>
       </c>
     </row>
@@ -7363,29 +7375,29 @@
       <c r="C107" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D107" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="E107" s="58" t="s">
+      <c r="D107" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E107" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="F107" s="59" t="s">
-        <v>482</v>
-      </c>
-      <c r="G107" s="77" t="s">
+      <c r="F107" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G107" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="H107" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="I107" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="J107" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="K107" s="59" t="s">
-        <v>85</v>
+      <c r="H107" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="I107" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="J107" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="K107" s="56" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7393,28 +7405,28 @@
       <c r="C108" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D108" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E108" s="55" t="s">
+      <c r="D108" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="E108" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="F108" s="56" t="s">
+      <c r="F108" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="G108" s="76" t="s">
+      <c r="G108" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="H108" s="57" t="s">
+      <c r="H108" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="I108" s="56" t="s">
+      <c r="I108" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="J108" s="56" t="s">
+      <c r="J108" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="K108" s="56" t="s">
+      <c r="K108" s="59" t="s">
         <v>85</v>
       </c>
     </row>
@@ -7423,29 +7435,29 @@
       <c r="C109" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D109" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="E109" s="58" t="s">
+      <c r="D109" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E109" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="F109" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="I109" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="J109" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="K109" s="59" t="s">
-        <v>89</v>
+      <c r="F109" s="56" t="s">
+        <v>482</v>
+      </c>
+      <c r="G109" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="I109" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="J109" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="K109" s="56" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7453,28 +7465,28 @@
       <c r="C110" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E110" s="55" t="s">
+      <c r="D110" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="E110" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="F110" s="56" t="s">
+      <c r="F110" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G110" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" s="57" t="s">
+      <c r="G110" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I110" s="56" t="s">
+      <c r="I110" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="J110" s="56" t="s">
+      <c r="J110" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="K110" s="56" t="s">
+      <c r="K110" s="59" t="s">
         <v>89</v>
       </c>
     </row>
@@ -7483,29 +7495,29 @@
       <c r="C111" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D111" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="E111" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="F111" s="59" t="s">
-        <v>482</v>
-      </c>
-      <c r="G111" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="H111" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="I111" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="J111" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="K111" s="59" t="s">
-        <v>93</v>
+      <c r="D111" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E111" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="F111" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="I111" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="J111" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="K111" s="56" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7513,28 +7525,28 @@
       <c r="C112" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D112" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E112" s="55" t="s">
+      <c r="D112" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="E112" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="F112" s="56" t="s">
+      <c r="F112" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="G112" s="76" t="s">
+      <c r="G112" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H112" s="57" t="s">
+      <c r="H112" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="I112" s="56" t="s">
+      <c r="I112" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="J112" s="56" t="s">
+      <c r="J112" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="K112" s="56" t="s">
+      <c r="K112" s="59" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7543,29 +7555,29 @@
       <c r="C113" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D113" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="E113" s="58" t="s">
+      <c r="D113" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E113" s="55" t="s">
         <v>479</v>
       </c>
-      <c r="F113" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="I113" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="J113" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="K113" s="59" t="s">
-        <v>97</v>
+      <c r="F113" s="56" t="s">
+        <v>482</v>
+      </c>
+      <c r="G113" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H113" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="I113" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="J113" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="K113" s="56" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7573,28 +7585,28 @@
       <c r="C114" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E114" s="55" t="s">
+      <c r="D114" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="E114" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="F114" s="56" t="s">
+      <c r="F114" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G114" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" s="57" t="s">
+      <c r="G114" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="I114" s="56" t="s">
+      <c r="I114" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="J114" s="56" t="s">
+      <c r="J114" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="K114" s="56" t="s">
+      <c r="K114" s="59" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7603,29 +7615,29 @@
       <c r="C115" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="E115" s="58" t="s">
-        <v>480</v>
-      </c>
-      <c r="F115" s="59" t="s">
-        <v>482</v>
-      </c>
-      <c r="G115" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="H115" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="I115" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="J115" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="K115" s="59" t="s">
-        <v>101</v>
+      <c r="D115" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="F115" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="I115" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="J115" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="K115" s="56" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7633,28 +7645,28 @@
       <c r="C116" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D116" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E116" s="55" t="s">
+      <c r="D116" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="E116" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="F116" s="56" t="s">
+      <c r="F116" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="G116" s="76" t="s">
+      <c r="G116" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="H116" s="57" t="s">
+      <c r="H116" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="I116" s="56" t="s">
+      <c r="I116" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="J116" s="56" t="s">
+      <c r="J116" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="K116" s="56" t="s">
+      <c r="K116" s="59" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7663,29 +7675,29 @@
       <c r="C117" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="E117" s="58" t="s">
+      <c r="D117" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E117" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="F117" s="59" t="s">
+      <c r="F117" s="56" t="s">
         <v>482</v>
       </c>
-      <c r="G117" s="77" t="s">
+      <c r="G117" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="H117" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="I117" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="J117" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="K117" s="59" t="s">
-        <v>105</v>
+      <c r="H117" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="I117" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="J117" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="K117" s="56" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7697,25 +7709,25 @@
         <v>472</v>
       </c>
       <c r="E118" s="58" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F118" s="59" t="s">
-        <v>22</v>
+        <v>482</v>
       </c>
       <c r="G118" s="77" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H118" s="60" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I118" s="59" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J118" s="59" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K118" s="59" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7723,28 +7735,28 @@
       <c r="C119" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D119" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E119" s="55" t="s">
+      <c r="D119" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="E119" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="F119" s="56" t="s">
+      <c r="F119" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G119" s="76" t="s">
+      <c r="G119" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H119" s="57" t="s">
+      <c r="H119" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I119" s="56" t="s">
+      <c r="I119" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="J119" s="56" t="s">
+      <c r="J119" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="K119" s="56" t="s">
+      <c r="K119" s="59" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7760,22 +7772,22 @@
         <v>479</v>
       </c>
       <c r="F120" s="56" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G120" s="76" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H120" s="57" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I120" s="56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J120" s="56" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K120" s="56" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7783,28 +7795,28 @@
       <c r="C121" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D121" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="E121" s="58" t="s">
+      <c r="D121" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E121" s="55" t="s">
         <v>479</v>
       </c>
-      <c r="F121" s="59" t="s">
+      <c r="F121" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G121" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" s="60" t="s">
+      <c r="G121" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="I121" s="59" t="s">
+      <c r="I121" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="J121" s="59" t="s">
+      <c r="J121" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="K121" s="59" t="s">
+      <c r="K121" s="56" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7813,29 +7825,29 @@
       <c r="C122" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D122" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E122" s="55" t="s">
+      <c r="D122" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="E122" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="F122" s="56" t="s">
+      <c r="F122" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G122" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="I122" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="J122" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="K122" s="56" t="s">
-        <v>117</v>
+      <c r="G122" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="I122" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="J122" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="K122" s="59" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7850,22 +7862,22 @@
         <v>479</v>
       </c>
       <c r="F123" s="56" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="G123" s="76" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H123" s="57" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I123" s="56" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J123" s="56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K123" s="56" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7880,22 +7892,22 @@
         <v>479</v>
       </c>
       <c r="F124" s="56" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="G124" s="76" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H124" s="57" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I124" s="56" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J124" s="56" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K124" s="56" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7903,29 +7915,29 @@
       <c r="C125" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D125" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E125" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="F125" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G125" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="H125" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="I125" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="J125" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="K125" s="62" t="s">
-        <v>130</v>
+      <c r="D125" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E125" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="F125" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="I125" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="J125" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="K125" s="56" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7940,22 +7952,22 @@
         <v>478</v>
       </c>
       <c r="F126" s="62" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G126" s="78" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H126" s="63" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I126" s="62" t="s">
         <v>127</v>
       </c>
       <c r="J126" s="62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K126" s="62" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7970,22 +7982,22 @@
         <v>478</v>
       </c>
       <c r="F127" s="62" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="G127" s="78" t="s">
         <v>12</v>
       </c>
       <c r="H127" s="63" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I127" s="62" t="s">
         <v>127</v>
       </c>
       <c r="J127" s="62" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K127" s="62" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8000,22 +8012,22 @@
         <v>478</v>
       </c>
       <c r="F128" s="62" t="s">
-        <v>22</v>
+        <v>482</v>
       </c>
       <c r="G128" s="78" t="s">
         <v>12</v>
       </c>
       <c r="H128" s="63" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I128" s="62" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="J128" s="62" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K128" s="62" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8030,22 +8042,22 @@
         <v>478</v>
       </c>
       <c r="F129" s="62" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G129" s="78" t="s">
         <v>12</v>
       </c>
       <c r="H129" s="63" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I129" s="62" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J129" s="62" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K129" s="62" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8060,22 +8072,22 @@
         <v>478</v>
       </c>
       <c r="F130" s="62" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G130" s="78" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H130" s="63" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I130" s="62" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="J130" s="62" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K130" s="62" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8090,22 +8102,22 @@
         <v>478</v>
       </c>
       <c r="F131" s="62" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G131" s="78" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H131" s="63" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I131" s="62" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J131" s="62" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K131" s="62" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8123,19 +8135,19 @@
         <v>17</v>
       </c>
       <c r="G132" s="78" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H132" s="63" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I132" s="62" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J132" s="62" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K132" s="62" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8153,19 +8165,19 @@
         <v>17</v>
       </c>
       <c r="G133" s="78" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H133" s="63" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I133" s="62" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="J133" s="62" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K133" s="62" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8183,19 +8195,19 @@
         <v>17</v>
       </c>
       <c r="G134" s="78" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H134" s="63" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I134" s="62" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="J134" s="62" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K134" s="62" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8204,7 +8216,7 @@
         <v>25</v>
       </c>
       <c r="D135" s="61" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="E135" s="61" t="s">
         <v>478</v>
@@ -8237,7 +8249,7 @@
         <v>163</v>
       </c>
       <c r="E136" s="61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F136" s="62" t="s">
         <v>17</v>
@@ -8246,16 +8258,16 @@
         <v>32</v>
       </c>
       <c r="H136" s="63" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="I136" s="62" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="J136" s="62" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="K136" s="62" t="s">
-        <v>251</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8270,22 +8282,22 @@
         <v>479</v>
       </c>
       <c r="F137" s="62" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G137" s="78" t="s">
         <v>32</v>
       </c>
       <c r="H137" s="63" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="I137" s="62" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="J137" s="62" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K137" s="62" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8297,25 +8309,25 @@
         <v>163</v>
       </c>
       <c r="E138" s="61" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F138" s="62" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G138" s="78" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H138" s="63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I138" s="62" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J138" s="62" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K138" s="62" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8330,22 +8342,22 @@
         <v>478</v>
       </c>
       <c r="F139" s="62" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="G139" s="78" t="s">
         <v>12</v>
       </c>
       <c r="H139" s="63" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I139" s="62" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J139" s="62" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K139" s="62" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8366,16 +8378,16 @@
         <v>12</v>
       </c>
       <c r="H140" s="63" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I140" s="62" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J140" s="62" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K140" s="62" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8390,22 +8402,22 @@
         <v>478</v>
       </c>
       <c r="F141" s="62" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G141" s="78" t="s">
         <v>12</v>
       </c>
       <c r="H141" s="63" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I141" s="62" t="s">
         <v>311</v>
       </c>
       <c r="J141" s="62" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K141" s="62" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8426,16 +8438,16 @@
         <v>12</v>
       </c>
       <c r="H142" s="63" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I142" s="62" t="s">
         <v>311</v>
       </c>
       <c r="J142" s="62" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K142" s="62" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8456,16 +8468,16 @@
         <v>12</v>
       </c>
       <c r="H143" s="63" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I143" s="62" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="J143" s="62" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K143" s="62" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8477,7 +8489,7 @@
         <v>163</v>
       </c>
       <c r="E144" s="61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F144" s="62" t="s">
         <v>17</v>
@@ -8486,16 +8498,16 @@
         <v>12</v>
       </c>
       <c r="H144" s="63" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I144" s="62" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J144" s="62" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K144" s="62" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8537,7 +8549,7 @@
         <v>163</v>
       </c>
       <c r="E146" s="61" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F146" s="62" t="s">
         <v>17</v>
@@ -8546,16 +8558,16 @@
         <v>12</v>
       </c>
       <c r="H146" s="63" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I146" s="62" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J146" s="62" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K146" s="62" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8576,21 +8588,46 @@
         <v>12</v>
       </c>
       <c r="H147" s="63" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I147" s="62" t="s">
         <v>329</v>
       </c>
       <c r="J147" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="K147" s="62" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" s="4" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C148" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E148" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F148" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G148" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="I148" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="J148" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="K147" s="62" t="s">
+      <c r="K148" s="62" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" s="4" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C148" s="7"/>
-      <c r="H148" s="8"/>
     </row>
     <row r="149" spans="1:11" s="4" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="7"/>
@@ -8640,173 +8677,184 @@
       <c r="C160" s="7"/>
       <c r="H160" s="8"/>
     </row>
-    <row r="161" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C161" s="7"/>
       <c r="H161" s="8"/>
     </row>
-    <row r="162" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C162" s="7"/>
       <c r="H162" s="8"/>
     </row>
-    <row r="163" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C163" s="7"/>
       <c r="H163" s="8"/>
     </row>
-    <row r="164" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C164" s="7"/>
       <c r="H164" s="8"/>
     </row>
-    <row r="165" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C165" s="7"/>
       <c r="H165" s="8"/>
     </row>
-    <row r="166" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C166" s="7"/>
       <c r="H166" s="8"/>
     </row>
-    <row r="167" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C167" s="7"/>
       <c r="H167" s="8"/>
     </row>
-    <row r="168" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C168" s="7"/>
       <c r="H168" s="8"/>
     </row>
-    <row r="169" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C169" s="7"/>
       <c r="H169" s="8"/>
     </row>
-    <row r="170" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C170" s="7"/>
       <c r="H170" s="8"/>
     </row>
-    <row r="171" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C171" s="7"/>
       <c r="H171" s="8"/>
     </row>
-    <row r="172" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C172" s="7"/>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C173" s="7"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C174" s="7"/>
       <c r="H174" s="8"/>
     </row>
+    <row r="175" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C175" s="7"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="H65" r:id="rId1" tooltip="https://loveable.dev" xr:uid="{2EFA6E8A-EE55-4697-BDB8-109197960BD3}"/>
-    <hyperlink ref="H66" r:id="rId2" tooltip="https://bolt.new" xr:uid="{3197816D-6A7C-4543-90A0-855F562E8122}"/>
-    <hyperlink ref="H67" r:id="rId3" tooltip="https://www.glideapps.com" xr:uid="{CC327F60-5504-4B85-B5D4-3C7E0679B113}"/>
-    <hyperlink ref="H94" r:id="rId4" tooltip="https://www.glideapps.com" xr:uid="{8DC8C428-1CAD-4055-8792-F809F5C383A1}"/>
-    <hyperlink ref="H68" r:id="rId5" tooltip="https://www.softr.io" xr:uid="{B5CF3CD5-A3A7-4CBC-A250-8907DE6F4284}"/>
-    <hyperlink ref="H95" r:id="rId6" tooltip="https://www.softr.io" xr:uid="{EBBAFE39-EA82-4638-964A-E8AD71558FBE}"/>
-    <hyperlink ref="H69" r:id="rId7" tooltip="https://flutterflow.io" xr:uid="{194F58D7-1B1A-4EE3-A88D-010B6E799121}"/>
-    <hyperlink ref="H96" r:id="rId8" tooltip="https://flutterflow.io" xr:uid="{B2224097-090A-4D82-98AB-9AA58594AB13}"/>
-    <hyperlink ref="H70" r:id="rId9" tooltip="https://bubble.io" xr:uid="{DC2141A8-2DB2-4867-B308-1DCCE38D19CD}"/>
-    <hyperlink ref="H97" r:id="rId10" tooltip="https://bubble.io" xr:uid="{AA9ACDB1-88C1-4F7F-8781-25C2220FC8C9}"/>
-    <hyperlink ref="H71" r:id="rId11" tooltip="https://www.adalo.com" xr:uid="{A5A5283B-D9B0-406C-9B56-143E85EFFBA0}"/>
-    <hyperlink ref="H98" r:id="rId12" tooltip="https://www.adalo.com" xr:uid="{83C3E907-2A95-4537-B574-77158EF1D383}"/>
-    <hyperlink ref="H72" r:id="rId13" tooltip="https://opal.so" xr:uid="{4A863EFD-279F-4372-8217-5AE2EB5055BE}"/>
-    <hyperlink ref="H99" r:id="rId14" tooltip="https://opal.so" xr:uid="{CB901FD0-1FD7-4A93-ABFB-3D5BC2A7F007}"/>
-    <hyperlink ref="H73" r:id="rId15" tooltip="https://base44.com" xr:uid="{22D638CE-5D47-41F0-9F61-DCFD0C275F22}"/>
-    <hyperlink ref="H74" r:id="rId16" tooltip="https://cursor.com" xr:uid="{C6A700D9-173B-4645-8B1B-337CE5E3E4CC}"/>
-    <hyperlink ref="H75" r:id="rId17" tooltip="https://code.visualstudio.com" xr:uid="{ADFF23CF-D283-4105-AD60-2CBEA3FE5D12}"/>
-    <hyperlink ref="H100" r:id="rId18" tooltip="https://www.canva.com" xr:uid="{10F7603E-154E-49FA-800F-33B9E1FFC9BF}"/>
-    <hyperlink ref="H101" r:id="rId19" tooltip="https://genial.ly" xr:uid="{1EA765A1-F06E-440E-A33F-C7F663C24287}"/>
-    <hyperlink ref="H102" r:id="rId20" tooltip="https://www.figma.com" xr:uid="{818DC6BE-D6B8-49AF-A88B-6EB1AB26BE06}"/>
-    <hyperlink ref="H106" r:id="rId21" tooltip="https://www.arcgis.com" xr:uid="{FE5505E0-4110-48C3-95F6-5E6D2852AE12}"/>
-    <hyperlink ref="H107" r:id="rId22" tooltip="https://qgis.org" xr:uid="{70C5A5AE-FDDE-4B90-8DBE-3892770181D8}"/>
-    <hyperlink ref="H108" r:id="rId23" tooltip="https://qgis.org" xr:uid="{FC0B4293-A6F4-48BC-ADD7-DEC086020AD8}"/>
-    <hyperlink ref="H109" r:id="rId24" tooltip="https://atlas.co/" xr:uid="{DEB4E37C-A84E-4598-92CB-0483162D10C7}"/>
-    <hyperlink ref="H110" r:id="rId25" tooltip="https://atlas.co/" xr:uid="{8F29172C-2002-43DD-A229-F6F5E4028CC8}"/>
-    <hyperlink ref="H111" r:id="rId26" tooltip="https://lookerstudio.google.com" xr:uid="{F54D28CA-B97C-4286-9A75-113E25318EE1}"/>
-    <hyperlink ref="H112" r:id="rId27" tooltip="https://lookerstudio.google.com" xr:uid="{9EE928F8-7C2D-401C-927E-78970F4BAD2F}"/>
-    <hyperlink ref="H113" r:id="rId28" tooltip="https://flourish.studio" xr:uid="{A7BE08FE-7F95-4B52-B585-945451225F81}"/>
-    <hyperlink ref="H114" r:id="rId29" tooltip="https://flourish.studio" xr:uid="{68042744-E55E-4A06-BF5B-300431683387}"/>
-    <hyperlink ref="H115" r:id="rId30" tooltip="https://public.tableau.com" xr:uid="{A067B163-C06B-4E3D-9767-018D523CAB20}"/>
-    <hyperlink ref="H116" r:id="rId31" tooltip="https://public.tableau.com" xr:uid="{53434193-1390-466F-AAC1-77D0E608FE28}"/>
-    <hyperlink ref="H117" r:id="rId32" tooltip="https://spark.apache.org" xr:uid="{DADE9516-5C45-4C3D-BAAE-773200A4BCB5}"/>
-    <hyperlink ref="H118" r:id="rId33" tooltip="https://powerbi.microsoft.com" xr:uid="{AFA5419D-F24B-462D-9912-2989F854DC19}"/>
-    <hyperlink ref="H119" r:id="rId34" tooltip="https://powerbi.microsoft.com" xr:uid="{F13A7F61-6632-46A8-8AC4-0C6265038A79}"/>
-    <hyperlink ref="H120" r:id="rId35" tooltip="https://infogram.com" xr:uid="{3E2D2227-117F-4A21-8BB7-B4D0863B4DC0}"/>
-    <hyperlink ref="H121" r:id="rId36" tooltip="https://infogram.com" xr:uid="{8854A09D-0493-432A-969F-38F71C2892FD}"/>
-    <hyperlink ref="H122" r:id="rId37" tooltip="https://whimsical.com" xr:uid="{194CF671-8748-4BA9-86B5-23BF4BA0175D}"/>
-    <hyperlink ref="H124" r:id="rId38" tooltip="https://piktochart.com" xr:uid="{C598D009-5EB6-49F8-9CBA-4D83B1D716B1}"/>
-    <hyperlink ref="H125" r:id="rId39" tooltip="https://www.midjourney.com" xr:uid="{CA40C142-8D75-4E5F-AE1B-0CA1238A52FF}"/>
-    <hyperlink ref="H126" r:id="rId40" tooltip="https://openai.com/dall-e" xr:uid="{D0B72634-3971-4BDC-A3D9-27E5D0DF815B}"/>
-    <hyperlink ref="H127" r:id="rId41" tooltip="https://www.bing.com/images/create" xr:uid="{A4A2F19E-FA37-48DA-BF61-FBB159D2A904}"/>
-    <hyperlink ref="H128" r:id="rId42" tooltip="https://designer.microsoft.com" xr:uid="{246C1D67-5205-4185-A0D5-D9FF5723C10E}"/>
-    <hyperlink ref="H129" r:id="rId43" tooltip="https://www.freepik.com" xr:uid="{346635FA-57A3-43F1-988F-7059FC6DBA5B}"/>
-    <hyperlink ref="H130" r:id="rId44" tooltip="https://stability.ai" xr:uid="{D4484F3E-C645-44C2-8070-18896E5A9B2C}"/>
-    <hyperlink ref="H131" r:id="rId45" tooltip="https://ideogram.ai" xr:uid="{7FE7709E-0AB1-4B6A-8BF5-D89BC3A6CFD0}"/>
-    <hyperlink ref="H132" r:id="rId46" tooltip="https://firefly.adobe.com" xr:uid="{05F569C3-17CE-4F23-93EE-D6128861C1D8}"/>
-    <hyperlink ref="H133" r:id="rId47" tooltip="https://flux-ai.io" xr:uid="{C368C4E5-B165-409B-91E6-20194E4C4464}"/>
-    <hyperlink ref="H134" r:id="rId48" tooltip="https://leonardo.ai" xr:uid="{FDA67C81-7FCA-4EFD-ABBE-B441382DCFAF}"/>
-    <hyperlink ref="H135" r:id="rId49" tooltip="https://leonardo.ai" xr:uid="{506D8849-3417-4560-BD8B-D2F9F54BEA7B}"/>
-    <hyperlink ref="H76" r:id="rId50" tooltip="https://chat.openai.com" xr:uid="{B995E048-988D-45BB-8F06-06856067BD5E}"/>
-    <hyperlink ref="H83" r:id="rId51" tooltip="https://chat.openai.com" xr:uid="{AA121F67-336E-4919-8E3A-D99749B3E4E1}"/>
-    <hyperlink ref="H16" r:id="rId52" tooltip="https://chat.openai.com" xr:uid="{E759BB9D-FF98-4E23-84F5-748001A55D12}"/>
-    <hyperlink ref="H17" r:id="rId53" tooltip="https://chat.openai.com" xr:uid="{51825F74-22CE-41F2-A57C-AF0FA33723E6}"/>
-    <hyperlink ref="H77" r:id="rId54" tooltip="https://chat.openai.com" xr:uid="{86028432-10E5-456D-BB43-3EA9FD255B4E}"/>
-    <hyperlink ref="H84" r:id="rId55" tooltip="https://chat.openai.com" xr:uid="{74EDDC75-629C-44D5-9458-44474200D463}"/>
-    <hyperlink ref="H18" r:id="rId56" tooltip="https://chat.openai.com" xr:uid="{3D644364-7C14-4993-B5B9-00C19D776492}"/>
-    <hyperlink ref="H19" r:id="rId57" tooltip="https://chat.openai.com" xr:uid="{24A9C542-32C6-4374-95C5-929B9D93CFFC}"/>
-    <hyperlink ref="H78" r:id="rId58" tooltip="https://claude.ai" xr:uid="{6418A2A9-3AA0-4C0A-AB8B-B86A11DA9ACC}"/>
-    <hyperlink ref="H85" r:id="rId59" tooltip="https://claude.ai" xr:uid="{3025F29F-F2E0-49B2-84B2-C6E06386B046}"/>
-    <hyperlink ref="H20" r:id="rId60" tooltip="https://claude.ai" xr:uid="{607F82DB-2DD3-4D8E-9079-4BB70CD2B7CC}"/>
-    <hyperlink ref="H21" r:id="rId61" tooltip="https://claude.ai" xr:uid="{4AB27610-033E-4197-84EF-7C572FF8EECD}"/>
-    <hyperlink ref="H86" r:id="rId62" tooltip="https://gemini.google.com" xr:uid="{40F1D2A9-1538-452C-B60C-53D2670C6D5D}"/>
-    <hyperlink ref="H79" r:id="rId63" tooltip="https://gemini.google.com" xr:uid="{9D5B7E5C-3616-4B26-ABC7-225F6D63CCA9}"/>
-    <hyperlink ref="H22" r:id="rId64" tooltip="https://gemini.google.com" xr:uid="{B57D5A7C-7545-45F3-B847-2ABA05A13DA5}"/>
-    <hyperlink ref="H23" r:id="rId65" tooltip="https://gemini.google.com" xr:uid="{0D1BE037-60FD-43AA-B229-A8AE63BDB0FD}"/>
-    <hyperlink ref="H24" r:id="rId66" tooltip="https://www.notion.so" xr:uid="{02D0D6EC-AD3D-417B-829E-839D7A5A0E2E}"/>
-    <hyperlink ref="H87" r:id="rId67" tooltip="https://www.copy.ai" xr:uid="{665B537D-4C94-4424-8BB8-61D921067BA2}"/>
-    <hyperlink ref="H88" r:id="rId68" tooltip="https://www.jasper.ai" xr:uid="{924F1E82-46CE-4796-BEB0-15FC9EF021BA}"/>
-    <hyperlink ref="H89" r:id="rId69" tooltip="https://writesonic.com" xr:uid="{A3AA0951-764E-4CDA-8D1D-09B58661F5FD}"/>
-    <hyperlink ref="H90" r:id="rId70" tooltip="https://www.sudowrite.com" xr:uid="{24711D49-0EAB-43AC-AD8B-07B92329D69A}"/>
-    <hyperlink ref="H91" r:id="rId71" tooltip="https://www.grammarly.com" xr:uid="{BECBFB7F-4EDD-47E0-B4B3-05CA5130C716}"/>
-    <hyperlink ref="H92" r:id="rId72" tooltip="https://prowritingaid.com" xr:uid="{A7F0ACA8-429E-45A3-9EDC-BB9A15752BEC}"/>
-    <hyperlink ref="H93" r:id="rId73" tooltip="https://scribehow.com" xr:uid="{ACA0D89F-D53B-4976-8C6B-4017C47EB63D}"/>
-    <hyperlink ref="H45" r:id="rId74" tooltip="https://wisprflow.ai/" xr:uid="{452BBAC1-14CB-46D2-A4BD-82E457B8CE33}"/>
-    <hyperlink ref="H46" r:id="rId75" tooltip="https://speechnotes.co/" xr:uid="{A2E4F84D-1E61-41A1-9200-05025EF826C8}"/>
-    <hyperlink ref="H47" r:id="rId76" tooltip="https://www.naturalreaders.com/" xr:uid="{7C30326D-A207-4121-AA37-2D93466EF4E0}"/>
-    <hyperlink ref="H48" r:id="rId77" tooltip="https://openai.com/research/whisper" xr:uid="{1F38F55C-C71F-4587-9012-EACF61FB6AAB}"/>
-    <hyperlink ref="H80" r:id="rId78" tooltip="https://openai.com/research/whisper" xr:uid="{7D99FCE1-4203-4888-B025-38453749299D}"/>
-    <hyperlink ref="H49" r:id="rId79" tooltip="https://speechify.com" xr:uid="{E6203BDC-5D9A-45C1-818F-5E837E6BFED0}"/>
-    <hyperlink ref="H50" r:id="rId80" tooltip="https://elevenlabs.io" xr:uid="{338F2AE8-B81D-4804-99DD-93DC835F4011}"/>
-    <hyperlink ref="H51" r:id="rId81" tooltip="https://murf.ai" xr:uid="{B64ED61D-A1AF-4D7E-A71E-68F72D42FC64}"/>
-    <hyperlink ref="H81" r:id="rId82" tooltip="https://cloud.google.com/speech-to-text" xr:uid="{B1D179AF-A8DA-43B5-9947-9CDEEF04277C}"/>
-    <hyperlink ref="H82" r:id="rId83" tooltip="https://azure.microsoft.com/en-us/products/cognitive-services/speech-services" xr:uid="{A44A6A53-3463-4052-A6EF-31C399B7C6FC}"/>
-    <hyperlink ref="H52" r:id="rId84" tooltip="https://www.descript.com" xr:uid="{3C6CD607-9A0A-411E-9923-FBE483D87B3E}"/>
-    <hyperlink ref="H136" r:id="rId85" tooltip="https://www.descript.com" xr:uid="{5F1A177C-F78D-4DC5-8F9B-791FA9465F6F}"/>
-    <hyperlink ref="H53" r:id="rId86" tooltip="https://www.audacityteam.org" xr:uid="{52D9D85F-AACF-4881-BEB1-3F6CD3C2D6F9}"/>
-    <hyperlink ref="H54" r:id="rId87" tooltip="https://podcast.adobe.com" xr:uid="{6F173A83-BC69-4D1D-A6DF-562626FDB43A}"/>
-    <hyperlink ref="H55" r:id="rId88" tooltip="https://cleanvoice.ai" xr:uid="{6C935DDA-FDA6-417F-A8B7-8DB9875AA363}"/>
-    <hyperlink ref="H56" r:id="rId89" tooltip="https://krisp.ai" xr:uid="{58242B84-311C-4376-BB96-4E868B12A20D}"/>
-    <hyperlink ref="H57" r:id="rId90" tooltip="https://www.voicemod.net" xr:uid="{EA7E11FC-8B5D-4E29-A3EA-CBDBB2976E89}"/>
-    <hyperlink ref="H58" r:id="rId91" tooltip="https://www.aiva.ai" xr:uid="{AFDCFF96-2BE2-48A0-8C1E-D059EBD51A4B}"/>
-    <hyperlink ref="H59" r:id="rId92" tooltip="https://soundraw.io" xr:uid="{EB71BDA8-8448-495F-9321-344F7C2D5E7E}"/>
-    <hyperlink ref="H60" r:id="rId93" tooltip="https://www.beatoven.ai" xr:uid="{58E6C4AE-72A1-41F3-BB0B-5111A7BC4860}"/>
-    <hyperlink ref="H61" r:id="rId94" tooltip="https://mubert.com" xr:uid="{26B11047-C51D-46F6-98B2-6C9E77F9CAC2}"/>
-    <hyperlink ref="H62" r:id="rId95" tooltip="https://www.ampermusic.com" xr:uid="{98F0CADE-171E-4EDB-BF0B-26231820EC1E}"/>
-    <hyperlink ref="H63" r:id="rId96" tooltip="https://boomy.com" xr:uid="{763A1CEC-E93B-4102-B85C-4BEE9DA28E01}"/>
-    <hyperlink ref="H64" r:id="rId97" tooltip="https://suno.com" xr:uid="{9975DDE6-E7A0-49CE-BF38-7892CBB84BB3}"/>
-    <hyperlink ref="H137" r:id="rId98" tooltip="https://runwayml.com" xr:uid="{5E1DBC08-4F2D-4241-968A-B9F6F4016BBB}"/>
-    <hyperlink ref="H138" r:id="rId99" tooltip="https://pika.art" xr:uid="{DDCDEAB7-2A6B-43BA-864F-82C540D36DE6}"/>
-    <hyperlink ref="H139" r:id="rId100" tooltip="https://openai.com/sora" xr:uid="{5BB910ED-C19C-4DA2-8FE2-2CD4AFA3472E}"/>
-    <hyperlink ref="H140" r:id="rId101" tooltip="https://www.synthesia.io" xr:uid="{9D9E8FBE-C201-4FFE-82D0-F5096D0501F8}"/>
-    <hyperlink ref="H141" r:id="rId102" tooltip="https://www.heygen.com" xr:uid="{C91E2456-930A-4098-AF75-22A09B32F19A}"/>
-    <hyperlink ref="H142" r:id="rId103" tooltip="https://elai.io" xr:uid="{04EEDDC6-8768-4C48-AE99-F8BBE764BA90}"/>
-    <hyperlink ref="H143" r:id="rId104" tooltip="https://lumen5.com" xr:uid="{0627FD8D-72CC-4C1A-8043-32FA808F18CC}"/>
-    <hyperlink ref="H144" r:id="rId105" tooltip="https://animoto.com" xr:uid="{03A8DA81-1889-4888-B430-56EB474E9EA3}"/>
-    <hyperlink ref="H145" r:id="rId106" tooltip="https://animoto.com" xr:uid="{185893A8-DBCE-4A84-AB60-096845D8393E}"/>
-    <hyperlink ref="H146" r:id="rId107" tooltip="https://www.magisto.com" xr:uid="{9B68B1F4-D986-44C6-9BDA-1F25B468137A}"/>
-    <hyperlink ref="H147" r:id="rId108" tooltip="https://www.wisecut.video" xr:uid="{C025928E-DA37-4AF5-ABAE-81CC3627DA33}"/>
+    <hyperlink ref="H66" r:id="rId1" tooltip="https://loveable.dev" xr:uid="{2EFA6E8A-EE55-4697-BDB8-109197960BD3}"/>
+    <hyperlink ref="H67" r:id="rId2" tooltip="https://bolt.new" xr:uid="{3197816D-6A7C-4543-90A0-855F562E8122}"/>
+    <hyperlink ref="H68" r:id="rId3" tooltip="https://www.glideapps.com" xr:uid="{CC327F60-5504-4B85-B5D4-3C7E0679B113}"/>
+    <hyperlink ref="H95" r:id="rId4" tooltip="https://www.glideapps.com" xr:uid="{8DC8C428-1CAD-4055-8792-F809F5C383A1}"/>
+    <hyperlink ref="H69" r:id="rId5" tooltip="https://www.softr.io" xr:uid="{B5CF3CD5-A3A7-4CBC-A250-8907DE6F4284}"/>
+    <hyperlink ref="H96" r:id="rId6" tooltip="https://www.softr.io" xr:uid="{EBBAFE39-EA82-4638-964A-E8AD71558FBE}"/>
+    <hyperlink ref="H70" r:id="rId7" tooltip="https://flutterflow.io" xr:uid="{194F58D7-1B1A-4EE3-A88D-010B6E799121}"/>
+    <hyperlink ref="H97" r:id="rId8" tooltip="https://flutterflow.io" xr:uid="{B2224097-090A-4D82-98AB-9AA58594AB13}"/>
+    <hyperlink ref="H71" r:id="rId9" tooltip="https://bubble.io" xr:uid="{DC2141A8-2DB2-4867-B308-1DCCE38D19CD}"/>
+    <hyperlink ref="H98" r:id="rId10" tooltip="https://bubble.io" xr:uid="{AA9ACDB1-88C1-4F7F-8781-25C2220FC8C9}"/>
+    <hyperlink ref="H72" r:id="rId11" tooltip="https://www.adalo.com" xr:uid="{A5A5283B-D9B0-406C-9B56-143E85EFFBA0}"/>
+    <hyperlink ref="H99" r:id="rId12" tooltip="https://www.adalo.com" xr:uid="{83C3E907-2A95-4537-B574-77158EF1D383}"/>
+    <hyperlink ref="H73" r:id="rId13" tooltip="https://opal.so" xr:uid="{4A863EFD-279F-4372-8217-5AE2EB5055BE}"/>
+    <hyperlink ref="H100" r:id="rId14" tooltip="https://opal.so" xr:uid="{CB901FD0-1FD7-4A93-ABFB-3D5BC2A7F007}"/>
+    <hyperlink ref="H74" r:id="rId15" tooltip="https://base44.com" xr:uid="{22D638CE-5D47-41F0-9F61-DCFD0C275F22}"/>
+    <hyperlink ref="H75" r:id="rId16" tooltip="https://cursor.com" xr:uid="{C6A700D9-173B-4645-8B1B-337CE5E3E4CC}"/>
+    <hyperlink ref="H76" r:id="rId17" tooltip="https://code.visualstudio.com" xr:uid="{ADFF23CF-D283-4105-AD60-2CBEA3FE5D12}"/>
+    <hyperlink ref="H101" r:id="rId18" tooltip="https://www.canva.com" xr:uid="{10F7603E-154E-49FA-800F-33B9E1FFC9BF}"/>
+    <hyperlink ref="H102" r:id="rId19" tooltip="https://genial.ly" xr:uid="{1EA765A1-F06E-440E-A33F-C7F663C24287}"/>
+    <hyperlink ref="H103" r:id="rId20" tooltip="https://www.figma.com" xr:uid="{818DC6BE-D6B8-49AF-A88B-6EB1AB26BE06}"/>
+    <hyperlink ref="H107" r:id="rId21" tooltip="https://www.arcgis.com" xr:uid="{FE5505E0-4110-48C3-95F6-5E6D2852AE12}"/>
+    <hyperlink ref="H108" r:id="rId22" tooltip="https://qgis.org" xr:uid="{70C5A5AE-FDDE-4B90-8DBE-3892770181D8}"/>
+    <hyperlink ref="H109" r:id="rId23" tooltip="https://qgis.org" xr:uid="{FC0B4293-A6F4-48BC-ADD7-DEC086020AD8}"/>
+    <hyperlink ref="H110" r:id="rId24" tooltip="https://atlas.co/" xr:uid="{DEB4E37C-A84E-4598-92CB-0483162D10C7}"/>
+    <hyperlink ref="H111" r:id="rId25" tooltip="https://atlas.co/" xr:uid="{8F29172C-2002-43DD-A229-F6F5E4028CC8}"/>
+    <hyperlink ref="H112" r:id="rId26" tooltip="https://lookerstudio.google.com" xr:uid="{F54D28CA-B97C-4286-9A75-113E25318EE1}"/>
+    <hyperlink ref="H113" r:id="rId27" tooltip="https://lookerstudio.google.com" xr:uid="{9EE928F8-7C2D-401C-927E-78970F4BAD2F}"/>
+    <hyperlink ref="H114" r:id="rId28" tooltip="https://flourish.studio" xr:uid="{A7BE08FE-7F95-4B52-B585-945451225F81}"/>
+    <hyperlink ref="H115" r:id="rId29" tooltip="https://flourish.studio" xr:uid="{68042744-E55E-4A06-BF5B-300431683387}"/>
+    <hyperlink ref="H116" r:id="rId30" tooltip="https://public.tableau.com" xr:uid="{A067B163-C06B-4E3D-9767-018D523CAB20}"/>
+    <hyperlink ref="H117" r:id="rId31" tooltip="https://public.tableau.com" xr:uid="{53434193-1390-466F-AAC1-77D0E608FE28}"/>
+    <hyperlink ref="H118" r:id="rId32" tooltip="https://spark.apache.org" xr:uid="{DADE9516-5C45-4C3D-BAAE-773200A4BCB5}"/>
+    <hyperlink ref="H119" r:id="rId33" tooltip="https://powerbi.microsoft.com" xr:uid="{AFA5419D-F24B-462D-9912-2989F854DC19}"/>
+    <hyperlink ref="H120" r:id="rId34" tooltip="https://powerbi.microsoft.com" xr:uid="{F13A7F61-6632-46A8-8AC4-0C6265038A79}"/>
+    <hyperlink ref="H121" r:id="rId35" tooltip="https://infogram.com" xr:uid="{3E2D2227-117F-4A21-8BB7-B4D0863B4DC0}"/>
+    <hyperlink ref="H122" r:id="rId36" tooltip="https://infogram.com" xr:uid="{8854A09D-0493-432A-969F-38F71C2892FD}"/>
+    <hyperlink ref="H123" r:id="rId37" tooltip="https://whimsical.com" xr:uid="{194CF671-8748-4BA9-86B5-23BF4BA0175D}"/>
+    <hyperlink ref="H125" r:id="rId38" tooltip="https://piktochart.com" xr:uid="{C598D009-5EB6-49F8-9CBA-4D83B1D716B1}"/>
+    <hyperlink ref="H126" r:id="rId39" tooltip="https://www.midjourney.com" xr:uid="{CA40C142-8D75-4E5F-AE1B-0CA1238A52FF}"/>
+    <hyperlink ref="H127" r:id="rId40" tooltip="https://openai.com/dall-e" xr:uid="{D0B72634-3971-4BDC-A3D9-27E5D0DF815B}"/>
+    <hyperlink ref="H128" r:id="rId41" tooltip="https://www.bing.com/images/create" xr:uid="{A4A2F19E-FA37-48DA-BF61-FBB159D2A904}"/>
+    <hyperlink ref="H129" r:id="rId42" tooltip="https://designer.microsoft.com" xr:uid="{246C1D67-5205-4185-A0D5-D9FF5723C10E}"/>
+    <hyperlink ref="H130" r:id="rId43" tooltip="https://www.freepik.com" xr:uid="{346635FA-57A3-43F1-988F-7059FC6DBA5B}"/>
+    <hyperlink ref="H131" r:id="rId44" tooltip="https://stability.ai" xr:uid="{D4484F3E-C645-44C2-8070-18896E5A9B2C}"/>
+    <hyperlink ref="H132" r:id="rId45" tooltip="https://ideogram.ai" xr:uid="{7FE7709E-0AB1-4B6A-8BF5-D89BC3A6CFD0}"/>
+    <hyperlink ref="H133" r:id="rId46" tooltip="https://firefly.adobe.com" xr:uid="{05F569C3-17CE-4F23-93EE-D6128861C1D8}"/>
+    <hyperlink ref="H134" r:id="rId47" tooltip="https://flux-ai.io" xr:uid="{C368C4E5-B165-409B-91E6-20194E4C4464}"/>
+    <hyperlink ref="H135" r:id="rId48" tooltip="https://leonardo.ai" xr:uid="{FDA67C81-7FCA-4EFD-ABBE-B441382DCFAF}"/>
+    <hyperlink ref="H136" r:id="rId49" tooltip="https://leonardo.ai" xr:uid="{506D8849-3417-4560-BD8B-D2F9F54BEA7B}"/>
+    <hyperlink ref="H77" r:id="rId50" tooltip="https://chat.openai.com" xr:uid="{B995E048-988D-45BB-8F06-06856067BD5E}"/>
+    <hyperlink ref="H84" r:id="rId51" tooltip="https://chat.openai.com" xr:uid="{AA121F67-336E-4919-8E3A-D99749B3E4E1}"/>
+    <hyperlink ref="H17" r:id="rId52" tooltip="https://chat.openai.com" xr:uid="{E759BB9D-FF98-4E23-84F5-748001A55D12}"/>
+    <hyperlink ref="H18" r:id="rId53" tooltip="https://chat.openai.com" xr:uid="{51825F74-22CE-41F2-A57C-AF0FA33723E6}"/>
+    <hyperlink ref="H78" r:id="rId54" tooltip="https://chat.openai.com" xr:uid="{86028432-10E5-456D-BB43-3EA9FD255B4E}"/>
+    <hyperlink ref="H85" r:id="rId55" tooltip="https://chat.openai.com" xr:uid="{74EDDC75-629C-44D5-9458-44474200D463}"/>
+    <hyperlink ref="H19" r:id="rId56" tooltip="https://chat.openai.com" xr:uid="{3D644364-7C14-4993-B5B9-00C19D776492}"/>
+    <hyperlink ref="H20" r:id="rId57" tooltip="https://chat.openai.com" xr:uid="{24A9C542-32C6-4374-95C5-929B9D93CFFC}"/>
+    <hyperlink ref="H79" r:id="rId58" tooltip="https://claude.ai" xr:uid="{6418A2A9-3AA0-4C0A-AB8B-B86A11DA9ACC}"/>
+    <hyperlink ref="H86" r:id="rId59" tooltip="https://claude.ai" xr:uid="{3025F29F-F2E0-49B2-84B2-C6E06386B046}"/>
+    <hyperlink ref="H21" r:id="rId60" tooltip="https://claude.ai" xr:uid="{607F82DB-2DD3-4D8E-9079-4BB70CD2B7CC}"/>
+    <hyperlink ref="H22" r:id="rId61" tooltip="https://claude.ai" xr:uid="{4AB27610-033E-4197-84EF-7C572FF8EECD}"/>
+    <hyperlink ref="H87" r:id="rId62" tooltip="https://gemini.google.com" xr:uid="{40F1D2A9-1538-452C-B60C-53D2670C6D5D}"/>
+    <hyperlink ref="H80" r:id="rId63" tooltip="https://gemini.google.com" xr:uid="{9D5B7E5C-3616-4B26-ABC7-225F6D63CCA9}"/>
+    <hyperlink ref="H23" r:id="rId64" tooltip="https://gemini.google.com" xr:uid="{B57D5A7C-7545-45F3-B847-2ABA05A13DA5}"/>
+    <hyperlink ref="H24" r:id="rId65" tooltip="https://gemini.google.com" xr:uid="{0D1BE037-60FD-43AA-B229-A8AE63BDB0FD}"/>
+    <hyperlink ref="H25" r:id="rId66" tooltip="https://www.notion.so" xr:uid="{02D0D6EC-AD3D-417B-829E-839D7A5A0E2E}"/>
+    <hyperlink ref="H88" r:id="rId67" tooltip="https://www.copy.ai" xr:uid="{665B537D-4C94-4424-8BB8-61D921067BA2}"/>
+    <hyperlink ref="H89" r:id="rId68" tooltip="https://www.jasper.ai" xr:uid="{924F1E82-46CE-4796-BEB0-15FC9EF021BA}"/>
+    <hyperlink ref="H90" r:id="rId69" tooltip="https://writesonic.com" xr:uid="{A3AA0951-764E-4CDA-8D1D-09B58661F5FD}"/>
+    <hyperlink ref="H91" r:id="rId70" tooltip="https://www.sudowrite.com" xr:uid="{24711D49-0EAB-43AC-AD8B-07B92329D69A}"/>
+    <hyperlink ref="H92" r:id="rId71" tooltip="https://www.grammarly.com" xr:uid="{BECBFB7F-4EDD-47E0-B4B3-05CA5130C716}"/>
+    <hyperlink ref="H93" r:id="rId72" tooltip="https://prowritingaid.com" xr:uid="{A7F0ACA8-429E-45A3-9EDC-BB9A15752BEC}"/>
+    <hyperlink ref="H94" r:id="rId73" tooltip="https://scribehow.com" xr:uid="{ACA0D89F-D53B-4976-8C6B-4017C47EB63D}"/>
+    <hyperlink ref="H46" r:id="rId74" tooltip="https://wisprflow.ai/" xr:uid="{452BBAC1-14CB-46D2-A4BD-82E457B8CE33}"/>
+    <hyperlink ref="H47" r:id="rId75" tooltip="https://speechnotes.co/" xr:uid="{A2E4F84D-1E61-41A1-9200-05025EF826C8}"/>
+    <hyperlink ref="H48" r:id="rId76" tooltip="https://www.naturalreaders.com/" xr:uid="{7C30326D-A207-4121-AA37-2D93466EF4E0}"/>
+    <hyperlink ref="H49" r:id="rId77" tooltip="https://openai.com/research/whisper" xr:uid="{1F38F55C-C71F-4587-9012-EACF61FB6AAB}"/>
+    <hyperlink ref="H81" r:id="rId78" tooltip="https://openai.com/research/whisper" xr:uid="{7D99FCE1-4203-4888-B025-38453749299D}"/>
+    <hyperlink ref="H50" r:id="rId79" tooltip="https://speechify.com" xr:uid="{E6203BDC-5D9A-45C1-818F-5E837E6BFED0}"/>
+    <hyperlink ref="H51" r:id="rId80" tooltip="https://elevenlabs.io" xr:uid="{338F2AE8-B81D-4804-99DD-93DC835F4011}"/>
+    <hyperlink ref="H52" r:id="rId81" tooltip="https://murf.ai" xr:uid="{B64ED61D-A1AF-4D7E-A71E-68F72D42FC64}"/>
+    <hyperlink ref="H82" r:id="rId82" tooltip="https://cloud.google.com/speech-to-text" xr:uid="{B1D179AF-A8DA-43B5-9947-9CDEEF04277C}"/>
+    <hyperlink ref="H83" r:id="rId83" tooltip="https://azure.microsoft.com/en-us/products/cognitive-services/speech-services" xr:uid="{A44A6A53-3463-4052-A6EF-31C399B7C6FC}"/>
+    <hyperlink ref="H53" r:id="rId84" tooltip="https://www.descript.com" xr:uid="{3C6CD607-9A0A-411E-9923-FBE483D87B3E}"/>
+    <hyperlink ref="H137" r:id="rId85" tooltip="https://www.descript.com" xr:uid="{5F1A177C-F78D-4DC5-8F9B-791FA9465F6F}"/>
+    <hyperlink ref="H54" r:id="rId86" tooltip="https://www.audacityteam.org" xr:uid="{52D9D85F-AACF-4881-BEB1-3F6CD3C2D6F9}"/>
+    <hyperlink ref="H55" r:id="rId87" tooltip="https://podcast.adobe.com" xr:uid="{6F173A83-BC69-4D1D-A6DF-562626FDB43A}"/>
+    <hyperlink ref="H56" r:id="rId88" tooltip="https://cleanvoice.ai" xr:uid="{6C935DDA-FDA6-417F-A8B7-8DB9875AA363}"/>
+    <hyperlink ref="H57" r:id="rId89" tooltip="https://krisp.ai" xr:uid="{58242B84-311C-4376-BB96-4E868B12A20D}"/>
+    <hyperlink ref="H58" r:id="rId90" tooltip="https://www.voicemod.net" xr:uid="{EA7E11FC-8B5D-4E29-A3EA-CBDBB2976E89}"/>
+    <hyperlink ref="H59" r:id="rId91" tooltip="https://www.aiva.ai" xr:uid="{AFDCFF96-2BE2-48A0-8C1E-D059EBD51A4B}"/>
+    <hyperlink ref="H60" r:id="rId92" tooltip="https://soundraw.io" xr:uid="{EB71BDA8-8448-495F-9321-344F7C2D5E7E}"/>
+    <hyperlink ref="H61" r:id="rId93" tooltip="https://www.beatoven.ai" xr:uid="{58E6C4AE-72A1-41F3-BB0B-5111A7BC4860}"/>
+    <hyperlink ref="H62" r:id="rId94" tooltip="https://mubert.com" xr:uid="{26B11047-C51D-46F6-98B2-6C9E77F9CAC2}"/>
+    <hyperlink ref="H63" r:id="rId95" tooltip="https://www.ampermusic.com" xr:uid="{98F0CADE-171E-4EDB-BF0B-26231820EC1E}"/>
+    <hyperlink ref="H64" r:id="rId96" tooltip="https://boomy.com" xr:uid="{763A1CEC-E93B-4102-B85C-4BEE9DA28E01}"/>
+    <hyperlink ref="H65" r:id="rId97" tooltip="https://suno.com" xr:uid="{9975DDE6-E7A0-49CE-BF38-7892CBB84BB3}"/>
+    <hyperlink ref="H138" r:id="rId98" tooltip="https://runwayml.com" xr:uid="{5E1DBC08-4F2D-4241-968A-B9F6F4016BBB}"/>
+    <hyperlink ref="H139" r:id="rId99" tooltip="https://pika.art" xr:uid="{DDCDEAB7-2A6B-43BA-864F-82C540D36DE6}"/>
+    <hyperlink ref="H140" r:id="rId100" tooltip="https://openai.com/sora" xr:uid="{5BB910ED-C19C-4DA2-8FE2-2CD4AFA3472E}"/>
+    <hyperlink ref="H141" r:id="rId101" tooltip="https://www.synthesia.io" xr:uid="{9D9E8FBE-C201-4FFE-82D0-F5096D0501F8}"/>
+    <hyperlink ref="H142" r:id="rId102" tooltip="https://www.heygen.com" xr:uid="{C91E2456-930A-4098-AF75-22A09B32F19A}"/>
+    <hyperlink ref="H143" r:id="rId103" tooltip="https://elai.io" xr:uid="{04EEDDC6-8768-4C48-AE99-F8BBE764BA90}"/>
+    <hyperlink ref="H144" r:id="rId104" tooltip="https://lumen5.com" xr:uid="{0627FD8D-72CC-4C1A-8043-32FA808F18CC}"/>
+    <hyperlink ref="H145" r:id="rId105" tooltip="https://animoto.com" xr:uid="{03A8DA81-1889-4888-B430-56EB474E9EA3}"/>
+    <hyperlink ref="H146" r:id="rId106" tooltip="https://animoto.com" xr:uid="{185893A8-DBCE-4A84-AB60-096845D8393E}"/>
+    <hyperlink ref="H147" r:id="rId107" tooltip="https://www.magisto.com" xr:uid="{9B68B1F4-D986-44C6-9BDA-1F25B468137A}"/>
+    <hyperlink ref="H148" r:id="rId108" tooltip="https://www.wisecut.video" xr:uid="{C025928E-DA37-4AF5-ABAE-81CC3627DA33}"/>
     <hyperlink ref="H2" r:id="rId109" tooltip="https://unity.com" xr:uid="{ACE7C12C-ACCB-485B-8548-80D76C3F7007}"/>
     <hyperlink ref="H3" r:id="rId110" tooltip="https://www.unrealengine.com" xr:uid="{8C5FD609-31F0-4887-B6F4-FD950D44ED26}"/>
     <hyperlink ref="H4" r:id="rId111" tooltip="https://www.twinmotion.com" xr:uid="{00903C70-E53E-4E5C-9619-C0E26F3AEDB8}"/>
@@ -8821,37 +8869,38 @@
     <hyperlink ref="H13" r:id="rId120" tooltip="https://sketchfab.com" xr:uid="{4E33E292-A507-45A6-B568-C784DC7D4EDE}"/>
     <hyperlink ref="H14" r:id="rId121" tooltip="https://www.adobe.com/products/substance3d.html" xr:uid="{0E1C059A-957A-4383-B3AD-65238DA0DBD7}"/>
     <hyperlink ref="H15" r:id="rId122" tooltip="https://www.nvidia.com/en-us/omniverse" xr:uid="{91731304-B25D-48CE-8F46-CAC8AA2767FF}"/>
-    <hyperlink ref="H25" r:id="rId123" tooltip="https://www.notion.so" xr:uid="{320769C3-B6B8-4CFE-A9DD-50E85139950B}"/>
-    <hyperlink ref="H26" r:id="rId124" tooltip="https://coda.io" xr:uid="{922DCD50-307B-4050-AD87-CE4558EDB88D}"/>
-    <hyperlink ref="H27" r:id="rId125" tooltip="https://obsidian.md" xr:uid="{F2BBBE20-46B1-40C4-B631-E6C59DC00D98}"/>
-    <hyperlink ref="H28" r:id="rId126" tooltip="https://www.zotero.org" xr:uid="{AC907A66-B49A-4D1F-92F4-B72C75B61E30}"/>
-    <hyperlink ref="H29" r:id="rId127" tooltip="https://endnote.com" xr:uid="{1BD4B616-C287-4C3D-AD6D-691079E4C494}"/>
-    <hyperlink ref="H30" r:id="rId128" tooltip="https://www.connectedpapers.com" xr:uid="{E2EBB6A6-878D-4BCA-A476-51DDA8D86B40}"/>
-    <hyperlink ref="H31" r:id="rId129" tooltip="https://mindgrasp.ai" xr:uid="{ADA62B32-981F-4B55-AE06-78B9A3DC66DF}"/>
-    <hyperlink ref="H32" r:id="rId130" tooltip="https://curipod.com" xr:uid="{6458E42C-0F7C-4DA2-BC00-B57DD879E55B}"/>
-    <hyperlink ref="H33" r:id="rId131" tooltip="https://edpuzzle.com" xr:uid="{E622D8C4-4734-4232-9F34-EDB33E0A0268}"/>
-    <hyperlink ref="H34" r:id="rId132" tooltip="https://nearpod.com" xr:uid="{0027EAB2-D90A-4118-987A-02415086BC3E}"/>
-    <hyperlink ref="H35" r:id="rId133" tooltip="https://elicit.com" xr:uid="{BF0D1E94-0562-4A7D-B350-FBAD05BFF9C8}"/>
-    <hyperlink ref="H36" r:id="rId134" tooltip="https://scispace.com" xr:uid="{70E85D5F-2273-4E24-8C5E-BC088DC07FA3}"/>
-    <hyperlink ref="H37" r:id="rId135" tooltip="https://www.scholarcy.com" xr:uid="{B4BDC9D1-501C-4452-86F2-B554EB4CAA0A}"/>
-    <hyperlink ref="H38" r:id="rId136" tooltip="https://www.perplexity.ai" xr:uid="{009E1089-893F-44E1-8C79-8A05C15EFBCC}"/>
-    <hyperlink ref="H39" r:id="rId137" tooltip="https://www.explainpaper.com" xr:uid="{96648B33-115B-4EE6-AFDC-4782EF895252}"/>
-    <hyperlink ref="H40" r:id="rId138" tooltip="https://paperpal.com" xr:uid="{3E7EE01B-051B-4181-8FCF-132A35D318D7}"/>
-    <hyperlink ref="H41" r:id="rId139" tooltip="https://akiflow.com" xr:uid="{D0CF9287-E747-4159-BC66-865C04B8AEDA}"/>
-    <hyperlink ref="H42" r:id="rId140" tooltip="https://todo.microsoft.com" xr:uid="{C8945B0D-CC9E-4D31-92A7-815559BA4EBE}"/>
-    <hyperlink ref="H43" r:id="rId141" tooltip="https://tasks.google.com" xr:uid="{497BFC27-962A-4CFD-869B-045D9B59187B}"/>
-    <hyperlink ref="H44" r:id="rId142" tooltip="https://clickup.com" xr:uid="{4EAA5608-09B9-4948-AFF5-816FDCBD6067}"/>
+    <hyperlink ref="H26" r:id="rId123" tooltip="https://www.notion.so" xr:uid="{320769C3-B6B8-4CFE-A9DD-50E85139950B}"/>
+    <hyperlink ref="H27" r:id="rId124" tooltip="https://coda.io" xr:uid="{922DCD50-307B-4050-AD87-CE4558EDB88D}"/>
+    <hyperlink ref="H28" r:id="rId125" tooltip="https://obsidian.md" xr:uid="{F2BBBE20-46B1-40C4-B631-E6C59DC00D98}"/>
+    <hyperlink ref="H29" r:id="rId126" tooltip="https://www.zotero.org" xr:uid="{AC907A66-B49A-4D1F-92F4-B72C75B61E30}"/>
+    <hyperlink ref="H30" r:id="rId127" tooltip="https://endnote.com" xr:uid="{1BD4B616-C287-4C3D-AD6D-691079E4C494}"/>
+    <hyperlink ref="H31" r:id="rId128" tooltip="https://www.connectedpapers.com" xr:uid="{E2EBB6A6-878D-4BCA-A476-51DDA8D86B40}"/>
+    <hyperlink ref="H32" r:id="rId129" tooltip="https://mindgrasp.ai" xr:uid="{ADA62B32-981F-4B55-AE06-78B9A3DC66DF}"/>
+    <hyperlink ref="H33" r:id="rId130" tooltip="https://curipod.com" xr:uid="{6458E42C-0F7C-4DA2-BC00-B57DD879E55B}"/>
+    <hyperlink ref="H34" r:id="rId131" tooltip="https://edpuzzle.com" xr:uid="{E622D8C4-4734-4232-9F34-EDB33E0A0268}"/>
+    <hyperlink ref="H35" r:id="rId132" tooltip="https://nearpod.com" xr:uid="{0027EAB2-D90A-4118-987A-02415086BC3E}"/>
+    <hyperlink ref="H36" r:id="rId133" tooltip="https://elicit.com" xr:uid="{BF0D1E94-0562-4A7D-B350-FBAD05BFF9C8}"/>
+    <hyperlink ref="H37" r:id="rId134" tooltip="https://scispace.com" xr:uid="{70E85D5F-2273-4E24-8C5E-BC088DC07FA3}"/>
+    <hyperlink ref="H38" r:id="rId135" tooltip="https://www.scholarcy.com" xr:uid="{B4BDC9D1-501C-4452-86F2-B554EB4CAA0A}"/>
+    <hyperlink ref="H39" r:id="rId136" tooltip="https://www.perplexity.ai" xr:uid="{009E1089-893F-44E1-8C79-8A05C15EFBCC}"/>
+    <hyperlink ref="H40" r:id="rId137" tooltip="https://www.explainpaper.com" xr:uid="{96648B33-115B-4EE6-AFDC-4782EF895252}"/>
+    <hyperlink ref="H41" r:id="rId138" tooltip="https://paperpal.com" xr:uid="{3E7EE01B-051B-4181-8FCF-132A35D318D7}"/>
+    <hyperlink ref="H42" r:id="rId139" tooltip="https://akiflow.com" xr:uid="{D0CF9287-E747-4159-BC66-865C04B8AEDA}"/>
+    <hyperlink ref="H43" r:id="rId140" tooltip="https://todo.microsoft.com" xr:uid="{C8945B0D-CC9E-4D31-92A7-815559BA4EBE}"/>
+    <hyperlink ref="H44" r:id="rId141" tooltip="https://tasks.google.com" xr:uid="{497BFC27-962A-4CFD-869B-045D9B59187B}"/>
+    <hyperlink ref="H45" r:id="rId142" tooltip="https://clickup.com" xr:uid="{4EAA5608-09B9-4948-AFF5-816FDCBD6067}"/>
+    <hyperlink ref="H16" r:id="rId143" tooltip="https://www.daz3d.com" xr:uid="{CC266CF2-95B0-4F9F-A886-9D2CCB234067}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId143"/>
-  <drawing r:id="rId144"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId144"/>
+  <drawing r:id="rId145"/>
   <tableParts count="1">
-    <tablePart r:id="rId145"/>
+    <tablePart r:id="rId146"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId146"/>
+        <x14:slicer r:id="rId147"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Web Tools Table.xlsx
+++ b/Web Tools Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashle\Documents\Air Quality Lab\Art + Eng Project\ai-tool-persona-quest-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA0AA55-A666-4F94-8667-A21D946B6A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A65468B-2224-4A9A-B10F-9F5B3BE72BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="All Tools Database Table" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Tools Database Table'!$C$1:$K$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Tools Database Table'!$C$1:$K$155</definedName>
     <definedName name="Slicer_AI_Dependency">#N/A</definedName>
     <definedName name="Slicer_Complexity">#N/A</definedName>
     <definedName name="Slicer_Price">#N/A</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="507">
   <si>
     <t>Description</t>
   </si>
@@ -1512,6 +1512,57 @@
   </si>
   <si>
     <t>Daz Studio</t>
+  </si>
+  <si>
+    <t>Artlist.io</t>
+  </si>
+  <si>
+    <t>Royalty-free stock music, sound effects, footage, and video templates with AI tools</t>
+  </si>
+  <si>
+    <t>High-quality assets, 8K footage, Unlimited downloads</t>
+  </si>
+  <si>
+    <t>Subscription required, No free tier, Can be expensive</t>
+  </si>
+  <si>
+    <t>✨ai-only</t>
+  </si>
+  <si>
+    <t>Julius AI</t>
+  </si>
+  <si>
+    <t>AI-powered data analyst for analyzing spreadsheets and creating visualizations through natural language</t>
+  </si>
+  <si>
+    <t>Natural language queries, Advanced statistical analysis, Data visualization</t>
+  </si>
+  <si>
+    <t>Limited free tier, Requires AI knowledge, Subscription for advanced models</t>
+  </si>
+  <si>
+    <t>Excalidraw</t>
+  </si>
+  <si>
+    <t>Beautiful.ai</t>
+  </si>
+  <si>
+    <t>Open-source whiteboard for sketching hand-drawn-like diagrams and wireframes</t>
+  </si>
+  <si>
+    <t>AI-powered presentation maker with smart slide templates that auto-adapt</t>
+  </si>
+  <si>
+    <t>Hand-drawn aesthetic, Real-time collaboration, Open source</t>
+  </si>
+  <si>
+    <t>AI design assistance, Auto-adapting slides, Professional templates</t>
+  </si>
+  <si>
+    <t>Limited free tier, Subscription required, Less customization than manual tools</t>
+  </si>
+  <si>
+    <t>Limited advanced features, Hand-drawn style may not suit all needs, Paid tier for presentations</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1982,6 +2033,60 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3883,8 +3988,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2AA2003-58F9-415C-BB5F-F7855C3F83B2}" name="Table1" displayName="Table1" ref="C1:K148" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="C1:K148" xr:uid="{D2AA2003-58F9-415C-BB5F-F7855C3F83B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2AA2003-58F9-415C-BB5F-F7855C3F83B2}" name="Table1" displayName="Table1" ref="C1:K155" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="C1:K155" xr:uid="{D2AA2003-58F9-415C-BB5F-F7855C3F83B2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{55A45D53-C0FE-4C62-A970-82342676D355}" name="Support Type" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{46885051-F187-44E0-883B-DC6DA5AA0AF9}" name="Use-Case Category" dataDxfId="7"/>
@@ -4162,13 +4267,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E640E2B-0A26-4A8F-8595-D60961988BB0}">
-  <dimension ref="A1:L175"/>
+  <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="I105" sqref="I105:J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4672,32 +4777,32 @@
     </row>
     <row r="17" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="79"/>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="82" t="s">
+        <v>474</v>
+      </c>
+      <c r="E17" s="82" t="s">
         <v>478</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>168</v>
+      <c r="F17" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="84" t="s">
+        <v>495</v>
+      </c>
+      <c r="I17" s="83" t="s">
+        <v>496</v>
+      </c>
+      <c r="J17" s="83" t="s">
+        <v>497</v>
+      </c>
+      <c r="K17" s="83" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -4705,28 +4810,28 @@
       <c r="C18" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="23" t="s">
+      <c r="G18" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="19" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4735,29 +4840,29 @@
       <c r="C19" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>173</v>
+      <c r="F19" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -4765,28 +4870,28 @@
       <c r="C20" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="23" t="s">
+      <c r="G20" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="19" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4795,29 +4900,29 @@
       <c r="C21" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="18" t="s">
+      <c r="D21" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>177</v>
+      <c r="F21" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -4825,28 +4930,28 @@
       <c r="C22" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="E22" s="21" t="s">
+      <c r="D22" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="23" t="s">
+      <c r="G22" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="19" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4855,29 +4960,29 @@
       <c r="C23" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>181</v>
+      <c r="F23" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -4885,28 +4990,28 @@
       <c r="C24" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="23" t="s">
+      <c r="G24" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4915,29 +5020,29 @@
       <c r="C25" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="18" t="s">
+      <c r="D25" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>185</v>
+      <c r="F25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -4945,29 +5050,29 @@
       <c r="C26" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="67" t="s">
+      <c r="D26" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>393</v>
+      <c r="H26" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -4982,22 +5087,22 @@
         <v>479</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G27" s="67" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5005,29 +5110,29 @@
       <c r="C28" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="E28" s="18" t="s">
+      <c r="D28" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>401</v>
+      <c r="F28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5036,28 +5141,28 @@
         <v>476</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="65" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5072,22 +5177,22 @@
         <v>480</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5096,28 +5201,28 @@
         <v>476</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>483</v>
+        <v>166</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5129,7 +5234,7 @@
         <v>483</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>17</v>
@@ -5138,16 +5243,16 @@
         <v>12</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5155,29 +5260,29 @@
       <c r="C33" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="E33" s="27" t="s">
+      <c r="D33" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="K33" s="28" t="s">
-        <v>421</v>
+      <c r="G33" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5189,25 +5294,25 @@
         <v>485</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G34" s="68" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5222,22 +5327,22 @@
         <v>479</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G35" s="68" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5245,29 +5350,29 @@
       <c r="C36" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="F36" s="19" t="s">
+      <c r="D36" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="F36" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>433</v>
+      <c r="G36" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="K36" s="28" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5282,22 +5387,22 @@
         <v>478</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G37" s="65" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5312,22 +5417,22 @@
         <v>478</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G38" s="65" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5335,29 +5440,29 @@
       <c r="C39" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D39" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="E39" s="21" t="s">
+      <c r="D39" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F39" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>445</v>
+      <c r="F39" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5365,29 +5470,29 @@
       <c r="C40" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="E40" s="18" t="s">
+      <c r="D40" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="F40" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>449</v>
+      <c r="F40" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5396,7 +5501,7 @@
         <v>476</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>478</v>
@@ -5408,16 +5513,16 @@
         <v>12</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5425,29 +5530,29 @@
       <c r="C42" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D42" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="K42" s="25" t="s">
-        <v>457</v>
+      <c r="D42" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5462,22 +5567,22 @@
         <v>479</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="G43" s="67" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K43" s="25" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5498,16 +5603,16 @@
         <v>12</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K44" s="25" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5522,52 +5627,52 @@
         <v>479</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>22</v>
+        <v>482</v>
       </c>
       <c r="G45" s="67" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="79"/>
-      <c r="C46" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="I46" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="J46" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="K46" s="32" t="s">
-        <v>216</v>
+      <c r="C46" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="K46" s="25" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5582,22 +5687,22 @@
         <v>478</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="G47" s="69" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K47" s="32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5612,22 +5717,22 @@
         <v>478</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="G48" s="69" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J48" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5642,22 +5747,22 @@
         <v>478</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="G49" s="69" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H49" s="33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J49" s="32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5672,22 +5777,22 @@
         <v>478</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="G50" s="69" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J50" s="32" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5708,16 +5813,16 @@
         <v>12</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>230</v>
       </c>
       <c r="J51" s="32" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5738,16 +5843,16 @@
         <v>12</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I52" s="32" t="s">
         <v>230</v>
       </c>
       <c r="J52" s="32" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5755,29 +5860,29 @@
       <c r="C53" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="D53" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="F53" s="35" t="s">
+      <c r="D53" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="F53" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G53" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="I53" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J53" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="K53" s="35" t="s">
-        <v>251</v>
+      <c r="G53" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J53" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="K53" s="32" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5789,25 +5894,25 @@
         <v>249</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="G54" s="70" t="s">
         <v>32</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I54" s="35" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J54" s="35" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K54" s="35" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5819,25 +5924,25 @@
         <v>249</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F55" s="35" t="s">
-        <v>22</v>
+        <v>482</v>
       </c>
       <c r="G55" s="70" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I55" s="35" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J55" s="35" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K55" s="35" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5849,25 +5954,25 @@
         <v>249</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G56" s="70" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I56" s="35" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J56" s="35" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K56" s="35" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5882,22 +5987,22 @@
         <v>478</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G57" s="70" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I57" s="35" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J57" s="35" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K57" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5909,7 +6014,7 @@
         <v>249</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F58" s="35" t="s">
         <v>17</v>
@@ -5918,16 +6023,16 @@
         <v>12</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I58" s="35" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J58" s="35" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5939,25 +6044,25 @@
         <v>249</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F59" s="35" t="s">
         <v>17</v>
       </c>
       <c r="G59" s="70" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I59" s="35" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J59" s="35" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5975,19 +6080,19 @@
         <v>17</v>
       </c>
       <c r="G60" s="70" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I60" s="35" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J60" s="35" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6008,16 +6113,16 @@
         <v>12</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I61" s="35" t="s">
         <v>277</v>
       </c>
       <c r="J61" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6038,16 +6143,16 @@
         <v>12</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I62" s="35" t="s">
         <v>277</v>
       </c>
       <c r="J62" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K62" s="35" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6062,22 +6167,22 @@
         <v>478</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="G63" s="70" t="s">
         <v>12</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I63" s="35" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J63" s="35" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6092,22 +6197,22 @@
         <v>478</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G64" s="70" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I64" s="35" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J64" s="35" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K64" s="35" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6122,82 +6227,82 @@
         <v>478</v>
       </c>
       <c r="F65" s="35" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G65" s="70" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I65" s="35" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J65" s="35" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K65" s="35" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="79"/>
-      <c r="C66" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="38" t="s">
+      <c r="C66" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E66" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="F66" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I66" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" s="39" t="s">
-        <v>14</v>
+      <c r="F66" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="I66" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J66" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="K66" s="35" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="79"/>
-      <c r="C67" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="38" t="s">
+      <c r="C67" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="F67" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I67" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J67" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67" s="39" t="s">
-        <v>19</v>
+      <c r="F67" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="86" t="s">
+        <v>490</v>
+      </c>
+      <c r="I67" s="85" t="s">
+        <v>491</v>
+      </c>
+      <c r="J67" s="85" t="s">
+        <v>492</v>
+      </c>
+      <c r="K67" s="85" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6212,22 +6317,22 @@
         <v>478</v>
       </c>
       <c r="F68" s="39" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G68" s="71" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I68" s="39" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J68" s="39" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K68" s="39" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6248,16 +6353,16 @@
         <v>12</v>
       </c>
       <c r="H69" s="40" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I69" s="39" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J69" s="39" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K69" s="39" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6269,25 +6374,25 @@
         <v>10</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G70" s="71" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H70" s="40" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J70" s="39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K70" s="39" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6299,25 +6404,25 @@
         <v>10</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F71" s="39" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="71" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H71" s="40" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I71" s="39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J71" s="39" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K71" s="39" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6335,19 +6440,19 @@
         <v>17</v>
       </c>
       <c r="G72" s="71" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I72" s="39" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J72" s="39" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K72" s="39" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6359,25 +6464,25 @@
         <v>10</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="G73" s="71" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H73" s="40" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I73" s="39" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J73" s="39" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K73" s="39" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6389,7 +6494,7 @@
         <v>10</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F74" s="39" t="s">
         <v>17</v>
@@ -6398,16 +6503,16 @@
         <v>12</v>
       </c>
       <c r="H74" s="40" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I74" s="39" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J74" s="39" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K74" s="39" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6415,29 +6520,29 @@
       <c r="C75" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="E75" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="F75" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I75" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J75" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="K75" s="42" t="s">
-        <v>52</v>
+      <c r="D75" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>482</v>
+      </c>
+      <c r="G75" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I75" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6445,29 +6550,29 @@
       <c r="C76" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="E76" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="F76" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="G76" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="I76" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J76" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="K76" s="42" t="s">
-        <v>56</v>
+      <c r="D76" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="F76" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J76" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76" s="39" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6479,25 +6584,25 @@
         <v>471</v>
       </c>
       <c r="E77" s="41" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F77" s="42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G77" s="72" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H77" s="43" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="I77" s="42" t="s">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="J77" s="42" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="K77" s="42" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6509,25 +6614,25 @@
         <v>471</v>
       </c>
       <c r="E78" s="41" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F78" s="42" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="G78" s="72" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H78" s="43" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="I78" s="42" t="s">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="J78" s="42" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="K78" s="42" t="s">
-        <v>173</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6548,16 +6653,16 @@
         <v>12</v>
       </c>
       <c r="H79" s="43" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I79" s="42" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J79" s="42" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="K79" s="42" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6572,22 +6677,22 @@
         <v>478</v>
       </c>
       <c r="F80" s="42" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G80" s="72" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="43" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I80" s="42" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J80" s="42" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K80" s="42" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6595,29 +6700,29 @@
       <c r="C81" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="44" t="s">
-        <v>484</v>
-      </c>
-      <c r="E81" s="44" t="s">
+      <c r="D81" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="E81" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="F81" s="45" t="s">
-        <v>482</v>
-      </c>
-      <c r="G81" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="H81" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="I81" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="J81" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="K81" s="45" t="s">
-        <v>228</v>
+      <c r="F81" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="I81" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="J81" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="K81" s="42" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6625,29 +6730,29 @@
       <c r="C82" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="44" t="s">
-        <v>484</v>
-      </c>
-      <c r="E82" s="44" t="s">
+      <c r="D82" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="E82" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="F82" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="I82" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="J82" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="K82" s="45" t="s">
-        <v>242</v>
+      <c r="F82" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="I82" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="J82" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="K82" s="42" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6662,82 +6767,82 @@
         <v>478</v>
       </c>
       <c r="F83" s="45" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="G83" s="73" t="s">
         <v>36</v>
       </c>
       <c r="H83" s="46" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="I83" s="45" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="J83" s="45" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="K83" s="45" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="79"/>
-      <c r="C84" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D84" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E84" s="48" t="s">
+      <c r="C84" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="44" t="s">
+        <v>484</v>
+      </c>
+      <c r="E84" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="F84" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="I84" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="J84" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="K84" s="49" t="s">
-        <v>168</v>
+      <c r="F84" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="G84" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="I84" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="J84" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="K84" s="45" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="79"/>
-      <c r="C85" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D85" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E85" s="48" t="s">
+      <c r="C85" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="44" t="s">
+        <v>484</v>
+      </c>
+      <c r="E85" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="F85" s="49" t="s">
+      <c r="F85" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G85" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="I85" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="J85" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="K85" s="49" t="s">
-        <v>173</v>
+      <c r="G85" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="I85" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="J85" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="K85" s="45" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6758,16 +6863,16 @@
         <v>12</v>
       </c>
       <c r="H86" s="50" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I86" s="49" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J86" s="49" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="K86" s="49" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6782,22 +6887,22 @@
         <v>478</v>
       </c>
       <c r="F87" s="49" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G87" s="74" t="s">
         <v>12</v>
       </c>
       <c r="H87" s="50" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I87" s="49" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J87" s="49" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K87" s="49" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6818,16 +6923,16 @@
         <v>12</v>
       </c>
       <c r="H88" s="50" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="I88" s="49" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J88" s="49" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="K88" s="49" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6842,22 +6947,22 @@
         <v>478</v>
       </c>
       <c r="F89" s="49" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G89" s="74" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H89" s="50" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I89" s="49" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J89" s="49" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K89" s="49" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6878,16 +6983,16 @@
         <v>12</v>
       </c>
       <c r="H90" s="50" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I90" s="49" t="s">
         <v>187</v>
       </c>
       <c r="J90" s="49" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K90" s="49" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6908,16 +7013,16 @@
         <v>32</v>
       </c>
       <c r="H91" s="50" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I91" s="49" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="J91" s="49" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K91" s="49" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6938,16 +7043,16 @@
         <v>12</v>
       </c>
       <c r="H92" s="50" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I92" s="49" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="J92" s="49" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K92" s="49" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6962,22 +7067,22 @@
         <v>478</v>
       </c>
       <c r="F93" s="49" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G93" s="74" t="s">
         <v>32</v>
       </c>
       <c r="H93" s="50" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="49" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J93" s="49" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K93" s="49" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -6998,76 +7103,76 @@
         <v>12</v>
       </c>
       <c r="H94" s="50" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I94" s="49" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J94" s="49" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="K94" s="49" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="79"/>
-      <c r="C95" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="52" t="s">
+      <c r="C95" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E95" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="F95" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="I95" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J95" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="K95" s="53" t="s">
-        <v>24</v>
+      <c r="F95" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="H95" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I95" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="J95" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="K95" s="49" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="79"/>
-      <c r="C96" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D96" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="52" t="s">
+      <c r="C96" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E96" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="F96" s="53" t="s">
+      <c r="F96" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G96" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="I96" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="J96" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="K96" s="53" t="s">
-        <v>29</v>
+      <c r="G96" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="I96" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="J96" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="K96" s="49" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7079,25 +7184,25 @@
         <v>10</v>
       </c>
       <c r="E97" s="52" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F97" s="53" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G97" s="75" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H97" s="54" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I97" s="53" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J97" s="53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K97" s="53" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7109,25 +7214,25 @@
         <v>10</v>
       </c>
       <c r="E98" s="52" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F98" s="53" t="s">
         <v>17</v>
       </c>
       <c r="G98" s="75" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H98" s="54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I98" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J98" s="53" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K98" s="53" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7145,19 +7250,19 @@
         <v>17</v>
       </c>
       <c r="G99" s="75" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H99" s="54" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I99" s="53" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J99" s="53" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K99" s="53" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7169,25 +7274,25 @@
         <v>10</v>
       </c>
       <c r="E100" s="52" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F100" s="53" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="G100" s="75" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H100" s="54" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I100" s="53" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J100" s="53" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K100" s="53" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7195,29 +7300,29 @@
       <c r="C101" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" s="55" t="s">
+      <c r="D101" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="52" t="s">
         <v>479</v>
       </c>
-      <c r="F101" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="I101" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="J101" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="K101" s="56" t="s">
-        <v>61</v>
+      <c r="F101" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="I101" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J101" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K101" s="53" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7225,29 +7330,29 @@
       <c r="C102" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D102" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E102" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="F102" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H102" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="I102" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="J102" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="K102" s="56" t="s">
-        <v>65</v>
+      <c r="D102" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="F102" s="53" t="s">
+        <v>482</v>
+      </c>
+      <c r="G102" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I102" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J102" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102" s="53" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7265,19 +7370,19 @@
         <v>22</v>
       </c>
       <c r="G103" s="76" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H103" s="57" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I103" s="56" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J103" s="56" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K103" s="56" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7292,52 +7397,52 @@
         <v>479</v>
       </c>
       <c r="F104" s="56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G104" s="76" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H104" s="57" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I104" s="56" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J104" s="56" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K104" s="56" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="79"/>
-      <c r="C105" s="51" t="s">
+      <c r="C105" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="D105" s="55" t="s">
+      <c r="D105" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="E105" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="F105" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="I105" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="J105" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="K105" s="56" t="s">
-        <v>76</v>
+      <c r="E105" s="88" t="s">
+        <v>494</v>
+      </c>
+      <c r="F105" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="90" t="s">
+        <v>500</v>
+      </c>
+      <c r="I105" s="89" t="s">
+        <v>502</v>
+      </c>
+      <c r="J105" s="89" t="s">
+        <v>504</v>
+      </c>
+      <c r="K105" s="94" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7345,29 +7450,29 @@
       <c r="C106" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D106" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="E106" s="58" t="s">
-        <v>480</v>
-      </c>
-      <c r="F106" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G106" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="H106" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="I106" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="J106" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="K106" s="59" t="s">
-        <v>81</v>
+      <c r="D106" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E106" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="F106" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H106" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="I106" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="J106" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="K106" s="56" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7379,115 +7484,115 @@
         <v>59</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F107" s="56" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G107" s="76" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H107" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="I107" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="J107" s="56" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="I107" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="J107" s="89" t="s">
+        <v>71</v>
       </c>
       <c r="K107" s="56" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="79"/>
-      <c r="C108" s="51" t="s">
+      <c r="C108" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="D108" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="E108" s="58" t="s">
+      <c r="D108" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E108" s="88" t="s">
         <v>480</v>
       </c>
-      <c r="F108" s="59" t="s">
-        <v>482</v>
-      </c>
-      <c r="G108" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="H108" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="I108" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="J108" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="K108" s="59" t="s">
-        <v>85</v>
+      <c r="F108" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="90" t="s">
+        <v>499</v>
+      </c>
+      <c r="I108" s="89" t="s">
+        <v>501</v>
+      </c>
+      <c r="J108" s="89" t="s">
+        <v>503</v>
+      </c>
+      <c r="K108" s="94" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="79"/>
-      <c r="C109" s="51" t="s">
+      <c r="C109" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="D109" s="55" t="s">
+      <c r="D109" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="E109" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="F109" s="56" t="s">
-        <v>482</v>
-      </c>
-      <c r="G109" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="H109" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="I109" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="J109" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="K109" s="56" t="s">
-        <v>85</v>
+      <c r="E109" s="88" t="s">
+        <v>494</v>
+      </c>
+      <c r="F109" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="90" t="s">
+        <v>495</v>
+      </c>
+      <c r="I109" s="89" t="s">
+        <v>496</v>
+      </c>
+      <c r="J109" s="89" t="s">
+        <v>497</v>
+      </c>
+      <c r="K109" s="89" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="79"/>
-      <c r="C110" s="51" t="s">
+      <c r="C110" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="58" t="s">
+      <c r="D110" s="91" t="s">
         <v>472</v>
       </c>
-      <c r="E110" s="58" t="s">
-        <v>480</v>
-      </c>
-      <c r="F110" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="I110" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="J110" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="K110" s="59" t="s">
-        <v>89</v>
+      <c r="E110" s="91" t="s">
+        <v>494</v>
+      </c>
+      <c r="F110" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="93" t="s">
+        <v>495</v>
+      </c>
+      <c r="I110" s="92" t="s">
+        <v>496</v>
+      </c>
+      <c r="J110" s="92" t="s">
+        <v>497</v>
+      </c>
+      <c r="K110" s="92" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7499,7 +7604,7 @@
         <v>59</v>
       </c>
       <c r="E111" s="55" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F111" s="56" t="s">
         <v>17</v>
@@ -7508,16 +7613,16 @@
         <v>12</v>
       </c>
       <c r="H111" s="57" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I111" s="56" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="J111" s="56" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K111" s="56" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7529,25 +7634,25 @@
         <v>472</v>
       </c>
       <c r="E112" s="58" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F112" s="59" t="s">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="G112" s="77" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H112" s="60" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I112" s="59" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J112" s="59" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K112" s="59" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7559,25 +7664,25 @@
         <v>59</v>
       </c>
       <c r="E113" s="55" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F113" s="56" t="s">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="G113" s="76" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H113" s="57" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I113" s="56" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J113" s="56" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K113" s="56" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7589,25 +7694,25 @@
         <v>472</v>
       </c>
       <c r="E114" s="58" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F114" s="59" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="G114" s="77" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H114" s="60" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I114" s="59" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J114" s="59" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K114" s="59" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7619,25 +7724,25 @@
         <v>59</v>
       </c>
       <c r="E115" s="55" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F115" s="56" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="G115" s="76" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H115" s="57" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I115" s="56" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J115" s="56" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K115" s="56" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7652,22 +7757,22 @@
         <v>480</v>
       </c>
       <c r="F116" s="59" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="G116" s="77" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H116" s="60" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I116" s="59" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J116" s="59" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K116" s="59" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7682,22 +7787,22 @@
         <v>480</v>
       </c>
       <c r="F117" s="56" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="G117" s="76" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H117" s="57" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I117" s="56" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J117" s="56" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K117" s="56" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7709,25 +7814,25 @@
         <v>472</v>
       </c>
       <c r="E118" s="58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F118" s="59" t="s">
         <v>482</v>
       </c>
       <c r="G118" s="77" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H118" s="60" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="I118" s="59" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="J118" s="59" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K118" s="59" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7735,29 +7840,29 @@
       <c r="C119" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D119" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="E119" s="58" t="s">
+      <c r="D119" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E119" s="55" t="s">
         <v>479</v>
       </c>
-      <c r="F119" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" s="77" t="s">
+      <c r="F119" s="56" t="s">
+        <v>482</v>
+      </c>
+      <c r="G119" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="H119" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="I119" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="J119" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="K119" s="59" t="s">
-        <v>109</v>
+      <c r="H119" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="I119" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="J119" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="K119" s="56" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7765,29 +7870,29 @@
       <c r="C120" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D120" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E120" s="55" t="s">
+      <c r="D120" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="E120" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="F120" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H120" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="I120" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="J120" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="K120" s="56" t="s">
-        <v>109</v>
+      <c r="F120" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="I120" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="J120" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="K120" s="59" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7808,16 +7913,16 @@
         <v>12</v>
       </c>
       <c r="H121" s="57" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I121" s="56" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="J121" s="56" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="K121" s="56" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7829,25 +7934,25 @@
         <v>472</v>
       </c>
       <c r="E122" s="58" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F122" s="59" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="G122" s="77" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H122" s="60" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="I122" s="59" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="J122" s="59" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K122" s="59" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7859,25 +7964,25 @@
         <v>59</v>
       </c>
       <c r="E123" s="55" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F123" s="56" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="G123" s="76" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H123" s="57" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I123" s="56" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="J123" s="56" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="K123" s="56" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7885,29 +7990,29 @@
       <c r="C124" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D124" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E124" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="F124" s="56" t="s">
+      <c r="D124" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="E124" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="F124" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="G124" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H124" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="I124" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="J124" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="K124" s="56" t="s">
-        <v>121</v>
+      <c r="G124" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="H124" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="I124" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="J124" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="K124" s="59" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7915,29 +8020,29 @@
       <c r="C125" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D125" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E125" s="55" t="s">
+      <c r="D125" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="E125" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="F125" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="I125" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="J125" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="K125" s="56" t="s">
-        <v>125</v>
+      <c r="F125" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="H125" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="I125" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="J125" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="K125" s="59" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7945,29 +8050,29 @@
       <c r="C126" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D126" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E126" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="F126" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G126" s="78" t="s">
+      <c r="D126" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E126" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="F126" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="H126" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="I126" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="J126" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="K126" s="62" t="s">
-        <v>130</v>
+      <c r="H126" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="I126" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="J126" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K126" s="56" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -7975,29 +8080,29 @@
       <c r="C127" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D127" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E127" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="F127" s="62" t="s">
+      <c r="D127" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E127" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="F127" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G127" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="I127" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="J127" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="K127" s="62" t="s">
-        <v>133</v>
+      <c r="G127" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="I127" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="J127" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="K127" s="56" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8005,29 +8110,29 @@
       <c r="C128" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D128" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E128" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="F128" s="62" t="s">
-        <v>482</v>
-      </c>
-      <c r="G128" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="I128" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="J128" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="K128" s="62" t="s">
-        <v>136</v>
+      <c r="D128" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="E128" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="F128" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="I128" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="J128" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="K128" s="59" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8035,29 +8140,29 @@
       <c r="C129" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D129" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E129" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="F129" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="I129" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="J129" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="K129" s="62" t="s">
-        <v>140</v>
+      <c r="D129" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E129" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="F129" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I129" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="J129" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="K129" s="56" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8065,29 +8170,29 @@
       <c r="C130" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E130" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="F130" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H130" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="I130" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="J130" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="K130" s="62" t="s">
-        <v>143</v>
+      <c r="D130" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E130" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="F130" s="56" t="s">
+        <v>482</v>
+      </c>
+      <c r="G130" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H130" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="I130" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="J130" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="K130" s="56" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8095,29 +8200,29 @@
       <c r="C131" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D131" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E131" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="F131" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="H131" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="I131" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="J131" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="K131" s="62" t="s">
-        <v>147</v>
+      <c r="D131" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E131" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="F131" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="I131" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="J131" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="K131" s="56" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8132,22 +8237,22 @@
         <v>478</v>
       </c>
       <c r="F132" s="62" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G132" s="78" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H132" s="63" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="I132" s="62" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="J132" s="62" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="K132" s="62" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8165,19 +8270,19 @@
         <v>17</v>
       </c>
       <c r="G133" s="78" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H133" s="63" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="I133" s="62" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="J133" s="62" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="K133" s="62" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8192,22 +8297,22 @@
         <v>478</v>
       </c>
       <c r="F134" s="62" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="G134" s="78" t="s">
         <v>12</v>
       </c>
       <c r="H134" s="63" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="I134" s="62" t="s">
         <v>127</v>
       </c>
       <c r="J134" s="62" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="K134" s="62" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8222,22 +8327,22 @@
         <v>478</v>
       </c>
       <c r="F135" s="62" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G135" s="78" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H135" s="63" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="I135" s="62" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="J135" s="62" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="K135" s="62" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8246,7 +8351,7 @@
         <v>25</v>
       </c>
       <c r="D136" s="61" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="E136" s="61" t="s">
         <v>478</v>
@@ -8255,19 +8360,19 @@
         <v>17</v>
       </c>
       <c r="G136" s="78" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H136" s="63" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="I136" s="62" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="J136" s="62" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="K136" s="62" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8276,28 +8381,28 @@
         <v>25</v>
       </c>
       <c r="D137" s="61" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="E137" s="61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F137" s="62" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G137" s="78" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H137" s="63" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="I137" s="62" t="s">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="J137" s="62" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="K137" s="62" t="s">
-        <v>251</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8306,28 +8411,28 @@
         <v>25</v>
       </c>
       <c r="D138" s="61" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="E138" s="61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F138" s="62" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G138" s="78" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H138" s="63" t="s">
-        <v>298</v>
+        <v>148</v>
       </c>
       <c r="I138" s="62" t="s">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="J138" s="62" t="s">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K138" s="62" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8336,7 +8441,7 @@
         <v>25</v>
       </c>
       <c r="D139" s="61" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="E139" s="61" t="s">
         <v>478</v>
@@ -8345,19 +8450,19 @@
         <v>17</v>
       </c>
       <c r="G139" s="78" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H139" s="63" t="s">
-        <v>302</v>
+        <v>152</v>
       </c>
       <c r="I139" s="62" t="s">
-        <v>303</v>
+        <v>153</v>
       </c>
       <c r="J139" s="62" t="s">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="K139" s="62" t="s">
-        <v>305</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8366,28 +8471,28 @@
         <v>25</v>
       </c>
       <c r="D140" s="61" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="E140" s="61" t="s">
         <v>478</v>
       </c>
       <c r="F140" s="62" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="G140" s="78" t="s">
         <v>12</v>
       </c>
       <c r="H140" s="63" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="I140" s="62" t="s">
-        <v>307</v>
+        <v>127</v>
       </c>
       <c r="J140" s="62" t="s">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="K140" s="62" t="s">
-        <v>309</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8396,28 +8501,28 @@
         <v>25</v>
       </c>
       <c r="D141" s="61" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="E141" s="61" t="s">
         <v>478</v>
       </c>
       <c r="F141" s="62" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="G141" s="78" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H141" s="63" t="s">
-        <v>310</v>
+        <v>159</v>
       </c>
       <c r="I141" s="62" t="s">
-        <v>311</v>
+        <v>160</v>
       </c>
       <c r="J141" s="62" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="K141" s="62" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8435,19 +8540,19 @@
         <v>17</v>
       </c>
       <c r="G142" s="78" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H142" s="63" t="s">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="I142" s="62" t="s">
-        <v>311</v>
+        <v>160</v>
       </c>
       <c r="J142" s="62" t="s">
-        <v>315</v>
+        <v>161</v>
       </c>
       <c r="K142" s="62" t="s">
-        <v>316</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8459,25 +8564,25 @@
         <v>163</v>
       </c>
       <c r="E143" s="61" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F143" s="62" t="s">
         <v>17</v>
       </c>
       <c r="G143" s="78" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H143" s="63" t="s">
-        <v>317</v>
+        <v>247</v>
       </c>
       <c r="I143" s="62" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="J143" s="62" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="K143" s="62" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8489,25 +8594,25 @@
         <v>163</v>
       </c>
       <c r="E144" s="61" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F144" s="62" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G144" s="78" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H144" s="63" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="I144" s="62" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="J144" s="62" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="K144" s="62" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8519,7 +8624,7 @@
         <v>163</v>
       </c>
       <c r="E145" s="61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F145" s="62" t="s">
         <v>17</v>
@@ -8528,16 +8633,16 @@
         <v>12</v>
       </c>
       <c r="H145" s="63" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="I145" s="62" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="J145" s="62" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="K145" s="62" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8549,25 +8654,25 @@
         <v>163</v>
       </c>
       <c r="E146" s="61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F146" s="62" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G146" s="78" t="s">
         <v>12</v>
       </c>
       <c r="H146" s="63" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="I146" s="62" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="J146" s="62" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="K146" s="62" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8582,22 +8687,22 @@
         <v>478</v>
       </c>
       <c r="F147" s="62" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G147" s="78" t="s">
         <v>12</v>
       </c>
       <c r="H147" s="63" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="I147" s="62" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="J147" s="62" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="K147" s="62" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:11" s="4" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -8617,45 +8722,220 @@
         <v>12</v>
       </c>
       <c r="H148" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="I148" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="J148" s="62" t="s">
+        <v>315</v>
+      </c>
+      <c r="K148" s="62" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" s="4" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E149" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F149" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G149" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="I149" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="J149" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="K149" s="62" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="C150" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E150" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F150" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G150" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="I150" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="J150" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="K150" s="62" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="C151" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E151" s="61" t="s">
+        <v>479</v>
+      </c>
+      <c r="F151" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G151" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="I151" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="J151" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="K151" s="62" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="C152" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E152" s="61" t="s">
+        <v>479</v>
+      </c>
+      <c r="F152" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G152" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="I152" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="J152" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="K152" s="62" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="C153" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E153" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F153" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="I153" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="J153" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="K153" s="62" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="C154" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E154" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F154" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G154" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="I154" s="62" t="s">
+        <v>491</v>
+      </c>
+      <c r="J154" s="62" t="s">
+        <v>492</v>
+      </c>
+      <c r="K154" s="62" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="C155" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E155" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="F155" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G155" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="I148" s="62" t="s">
+      <c r="I155" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="J148" s="62" t="s">
+      <c r="J155" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="K148" s="62" t="s">
+      <c r="K155" s="62" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" s="4" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C149" s="7"/>
-      <c r="H149" s="8"/>
-    </row>
-    <row r="150" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C150" s="7"/>
-      <c r="H150" s="8"/>
-    </row>
-    <row r="151" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C151" s="7"/>
-      <c r="H151" s="8"/>
-    </row>
-    <row r="152" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C152" s="7"/>
-      <c r="H152" s="8"/>
-    </row>
-    <row r="153" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C153" s="7"/>
-      <c r="H153" s="8"/>
-    </row>
-    <row r="154" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="7"/>
-      <c r="H154" s="8"/>
-    </row>
-    <row r="155" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C155" s="7"/>
-      <c r="H155" s="8"/>
     </row>
     <row r="156" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C156" s="7"/>
@@ -8744,117 +9024,194 @@
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
     </row>
+    <row r="176" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C176" s="7"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+    </row>
+    <row r="177" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C177" s="7"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+    </row>
+    <row r="178" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C178" s="7"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="8"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+    </row>
+    <row r="179" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C179" s="7"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+    </row>
+    <row r="180" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C180" s="7"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+    </row>
+    <row r="181" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C181" s="7"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+    </row>
+    <row r="182" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C182" s="7"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="K182" s="4"/>
+    </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="H66" r:id="rId1" tooltip="https://loveable.dev" xr:uid="{2EFA6E8A-EE55-4697-BDB8-109197960BD3}"/>
-    <hyperlink ref="H67" r:id="rId2" tooltip="https://bolt.new" xr:uid="{3197816D-6A7C-4543-90A0-855F562E8122}"/>
-    <hyperlink ref="H68" r:id="rId3" tooltip="https://www.glideapps.com" xr:uid="{CC327F60-5504-4B85-B5D4-3C7E0679B113}"/>
-    <hyperlink ref="H95" r:id="rId4" tooltip="https://www.glideapps.com" xr:uid="{8DC8C428-1CAD-4055-8792-F809F5C383A1}"/>
-    <hyperlink ref="H69" r:id="rId5" tooltip="https://www.softr.io" xr:uid="{B5CF3CD5-A3A7-4CBC-A250-8907DE6F4284}"/>
-    <hyperlink ref="H96" r:id="rId6" tooltip="https://www.softr.io" xr:uid="{EBBAFE39-EA82-4638-964A-E8AD71558FBE}"/>
-    <hyperlink ref="H70" r:id="rId7" tooltip="https://flutterflow.io" xr:uid="{194F58D7-1B1A-4EE3-A88D-010B6E799121}"/>
-    <hyperlink ref="H97" r:id="rId8" tooltip="https://flutterflow.io" xr:uid="{B2224097-090A-4D82-98AB-9AA58594AB13}"/>
-    <hyperlink ref="H71" r:id="rId9" tooltip="https://bubble.io" xr:uid="{DC2141A8-2DB2-4867-B308-1DCCE38D19CD}"/>
-    <hyperlink ref="H98" r:id="rId10" tooltip="https://bubble.io" xr:uid="{AA9ACDB1-88C1-4F7F-8781-25C2220FC8C9}"/>
-    <hyperlink ref="H72" r:id="rId11" tooltip="https://www.adalo.com" xr:uid="{A5A5283B-D9B0-406C-9B56-143E85EFFBA0}"/>
-    <hyperlink ref="H99" r:id="rId12" tooltip="https://www.adalo.com" xr:uid="{83C3E907-2A95-4537-B574-77158EF1D383}"/>
-    <hyperlink ref="H73" r:id="rId13" tooltip="https://opal.so" xr:uid="{4A863EFD-279F-4372-8217-5AE2EB5055BE}"/>
-    <hyperlink ref="H100" r:id="rId14" tooltip="https://opal.so" xr:uid="{CB901FD0-1FD7-4A93-ABFB-3D5BC2A7F007}"/>
-    <hyperlink ref="H74" r:id="rId15" tooltip="https://base44.com" xr:uid="{22D638CE-5D47-41F0-9F61-DCFD0C275F22}"/>
-    <hyperlink ref="H75" r:id="rId16" tooltip="https://cursor.com" xr:uid="{C6A700D9-173B-4645-8B1B-337CE5E3E4CC}"/>
-    <hyperlink ref="H76" r:id="rId17" tooltip="https://code.visualstudio.com" xr:uid="{ADFF23CF-D283-4105-AD60-2CBEA3FE5D12}"/>
-    <hyperlink ref="H101" r:id="rId18" tooltip="https://www.canva.com" xr:uid="{10F7603E-154E-49FA-800F-33B9E1FFC9BF}"/>
-    <hyperlink ref="H102" r:id="rId19" tooltip="https://genial.ly" xr:uid="{1EA765A1-F06E-440E-A33F-C7F663C24287}"/>
-    <hyperlink ref="H103" r:id="rId20" tooltip="https://www.figma.com" xr:uid="{818DC6BE-D6B8-49AF-A88B-6EB1AB26BE06}"/>
-    <hyperlink ref="H107" r:id="rId21" tooltip="https://www.arcgis.com" xr:uid="{FE5505E0-4110-48C3-95F6-5E6D2852AE12}"/>
-    <hyperlink ref="H108" r:id="rId22" tooltip="https://qgis.org" xr:uid="{70C5A5AE-FDDE-4B90-8DBE-3892770181D8}"/>
-    <hyperlink ref="H109" r:id="rId23" tooltip="https://qgis.org" xr:uid="{FC0B4293-A6F4-48BC-ADD7-DEC086020AD8}"/>
-    <hyperlink ref="H110" r:id="rId24" tooltip="https://atlas.co/" xr:uid="{DEB4E37C-A84E-4598-92CB-0483162D10C7}"/>
-    <hyperlink ref="H111" r:id="rId25" tooltip="https://atlas.co/" xr:uid="{8F29172C-2002-43DD-A229-F6F5E4028CC8}"/>
-    <hyperlink ref="H112" r:id="rId26" tooltip="https://lookerstudio.google.com" xr:uid="{F54D28CA-B97C-4286-9A75-113E25318EE1}"/>
-    <hyperlink ref="H113" r:id="rId27" tooltip="https://lookerstudio.google.com" xr:uid="{9EE928F8-7C2D-401C-927E-78970F4BAD2F}"/>
-    <hyperlink ref="H114" r:id="rId28" tooltip="https://flourish.studio" xr:uid="{A7BE08FE-7F95-4B52-B585-945451225F81}"/>
-    <hyperlink ref="H115" r:id="rId29" tooltip="https://flourish.studio" xr:uid="{68042744-E55E-4A06-BF5B-300431683387}"/>
-    <hyperlink ref="H116" r:id="rId30" tooltip="https://public.tableau.com" xr:uid="{A067B163-C06B-4E3D-9767-018D523CAB20}"/>
-    <hyperlink ref="H117" r:id="rId31" tooltip="https://public.tableau.com" xr:uid="{53434193-1390-466F-AAC1-77D0E608FE28}"/>
-    <hyperlink ref="H118" r:id="rId32" tooltip="https://spark.apache.org" xr:uid="{DADE9516-5C45-4C3D-BAAE-773200A4BCB5}"/>
-    <hyperlink ref="H119" r:id="rId33" tooltip="https://powerbi.microsoft.com" xr:uid="{AFA5419D-F24B-462D-9912-2989F854DC19}"/>
-    <hyperlink ref="H120" r:id="rId34" tooltip="https://powerbi.microsoft.com" xr:uid="{F13A7F61-6632-46A8-8AC4-0C6265038A79}"/>
-    <hyperlink ref="H121" r:id="rId35" tooltip="https://infogram.com" xr:uid="{3E2D2227-117F-4A21-8BB7-B4D0863B4DC0}"/>
-    <hyperlink ref="H122" r:id="rId36" tooltip="https://infogram.com" xr:uid="{8854A09D-0493-432A-969F-38F71C2892FD}"/>
-    <hyperlink ref="H123" r:id="rId37" tooltip="https://whimsical.com" xr:uid="{194CF671-8748-4BA9-86B5-23BF4BA0175D}"/>
-    <hyperlink ref="H125" r:id="rId38" tooltip="https://piktochart.com" xr:uid="{C598D009-5EB6-49F8-9CBA-4D83B1D716B1}"/>
-    <hyperlink ref="H126" r:id="rId39" tooltip="https://www.midjourney.com" xr:uid="{CA40C142-8D75-4E5F-AE1B-0CA1238A52FF}"/>
-    <hyperlink ref="H127" r:id="rId40" tooltip="https://openai.com/dall-e" xr:uid="{D0B72634-3971-4BDC-A3D9-27E5D0DF815B}"/>
-    <hyperlink ref="H128" r:id="rId41" tooltip="https://www.bing.com/images/create" xr:uid="{A4A2F19E-FA37-48DA-BF61-FBB159D2A904}"/>
-    <hyperlink ref="H129" r:id="rId42" tooltip="https://designer.microsoft.com" xr:uid="{246C1D67-5205-4185-A0D5-D9FF5723C10E}"/>
-    <hyperlink ref="H130" r:id="rId43" tooltip="https://www.freepik.com" xr:uid="{346635FA-57A3-43F1-988F-7059FC6DBA5B}"/>
-    <hyperlink ref="H131" r:id="rId44" tooltip="https://stability.ai" xr:uid="{D4484F3E-C645-44C2-8070-18896E5A9B2C}"/>
-    <hyperlink ref="H132" r:id="rId45" tooltip="https://ideogram.ai" xr:uid="{7FE7709E-0AB1-4B6A-8BF5-D89BC3A6CFD0}"/>
-    <hyperlink ref="H133" r:id="rId46" tooltip="https://firefly.adobe.com" xr:uid="{05F569C3-17CE-4F23-93EE-D6128861C1D8}"/>
-    <hyperlink ref="H134" r:id="rId47" tooltip="https://flux-ai.io" xr:uid="{C368C4E5-B165-409B-91E6-20194E4C4464}"/>
-    <hyperlink ref="H135" r:id="rId48" tooltip="https://leonardo.ai" xr:uid="{FDA67C81-7FCA-4EFD-ABBE-B441382DCFAF}"/>
-    <hyperlink ref="H136" r:id="rId49" tooltip="https://leonardo.ai" xr:uid="{506D8849-3417-4560-BD8B-D2F9F54BEA7B}"/>
-    <hyperlink ref="H77" r:id="rId50" tooltip="https://chat.openai.com" xr:uid="{B995E048-988D-45BB-8F06-06856067BD5E}"/>
-    <hyperlink ref="H84" r:id="rId51" tooltip="https://chat.openai.com" xr:uid="{AA121F67-336E-4919-8E3A-D99749B3E4E1}"/>
-    <hyperlink ref="H17" r:id="rId52" tooltip="https://chat.openai.com" xr:uid="{E759BB9D-FF98-4E23-84F5-748001A55D12}"/>
-    <hyperlink ref="H18" r:id="rId53" tooltip="https://chat.openai.com" xr:uid="{51825F74-22CE-41F2-A57C-AF0FA33723E6}"/>
-    <hyperlink ref="H78" r:id="rId54" tooltip="https://chat.openai.com" xr:uid="{86028432-10E5-456D-BB43-3EA9FD255B4E}"/>
-    <hyperlink ref="H85" r:id="rId55" tooltip="https://chat.openai.com" xr:uid="{74EDDC75-629C-44D5-9458-44474200D463}"/>
-    <hyperlink ref="H19" r:id="rId56" tooltip="https://chat.openai.com" xr:uid="{3D644364-7C14-4993-B5B9-00C19D776492}"/>
-    <hyperlink ref="H20" r:id="rId57" tooltip="https://chat.openai.com" xr:uid="{24A9C542-32C6-4374-95C5-929B9D93CFFC}"/>
-    <hyperlink ref="H79" r:id="rId58" tooltip="https://claude.ai" xr:uid="{6418A2A9-3AA0-4C0A-AB8B-B86A11DA9ACC}"/>
-    <hyperlink ref="H86" r:id="rId59" tooltip="https://claude.ai" xr:uid="{3025F29F-F2E0-49B2-84B2-C6E06386B046}"/>
-    <hyperlink ref="H21" r:id="rId60" tooltip="https://claude.ai" xr:uid="{607F82DB-2DD3-4D8E-9079-4BB70CD2B7CC}"/>
-    <hyperlink ref="H22" r:id="rId61" tooltip="https://claude.ai" xr:uid="{4AB27610-033E-4197-84EF-7C572FF8EECD}"/>
-    <hyperlink ref="H87" r:id="rId62" tooltip="https://gemini.google.com" xr:uid="{40F1D2A9-1538-452C-B60C-53D2670C6D5D}"/>
-    <hyperlink ref="H80" r:id="rId63" tooltip="https://gemini.google.com" xr:uid="{9D5B7E5C-3616-4B26-ABC7-225F6D63CCA9}"/>
-    <hyperlink ref="H23" r:id="rId64" tooltip="https://gemini.google.com" xr:uid="{B57D5A7C-7545-45F3-B847-2ABA05A13DA5}"/>
-    <hyperlink ref="H24" r:id="rId65" tooltip="https://gemini.google.com" xr:uid="{0D1BE037-60FD-43AA-B229-A8AE63BDB0FD}"/>
-    <hyperlink ref="H25" r:id="rId66" tooltip="https://www.notion.so" xr:uid="{02D0D6EC-AD3D-417B-829E-839D7A5A0E2E}"/>
-    <hyperlink ref="H88" r:id="rId67" tooltip="https://www.copy.ai" xr:uid="{665B537D-4C94-4424-8BB8-61D921067BA2}"/>
-    <hyperlink ref="H89" r:id="rId68" tooltip="https://www.jasper.ai" xr:uid="{924F1E82-46CE-4796-BEB0-15FC9EF021BA}"/>
-    <hyperlink ref="H90" r:id="rId69" tooltip="https://writesonic.com" xr:uid="{A3AA0951-764E-4CDA-8D1D-09B58661F5FD}"/>
-    <hyperlink ref="H91" r:id="rId70" tooltip="https://www.sudowrite.com" xr:uid="{24711D49-0EAB-43AC-AD8B-07B92329D69A}"/>
-    <hyperlink ref="H92" r:id="rId71" tooltip="https://www.grammarly.com" xr:uid="{BECBFB7F-4EDD-47E0-B4B3-05CA5130C716}"/>
-    <hyperlink ref="H93" r:id="rId72" tooltip="https://prowritingaid.com" xr:uid="{A7F0ACA8-429E-45A3-9EDC-BB9A15752BEC}"/>
-    <hyperlink ref="H94" r:id="rId73" tooltip="https://scribehow.com" xr:uid="{ACA0D89F-D53B-4976-8C6B-4017C47EB63D}"/>
-    <hyperlink ref="H46" r:id="rId74" tooltip="https://wisprflow.ai/" xr:uid="{452BBAC1-14CB-46D2-A4BD-82E457B8CE33}"/>
-    <hyperlink ref="H47" r:id="rId75" tooltip="https://speechnotes.co/" xr:uid="{A2E4F84D-1E61-41A1-9200-05025EF826C8}"/>
-    <hyperlink ref="H48" r:id="rId76" tooltip="https://www.naturalreaders.com/" xr:uid="{7C30326D-A207-4121-AA37-2D93466EF4E0}"/>
-    <hyperlink ref="H49" r:id="rId77" tooltip="https://openai.com/research/whisper" xr:uid="{1F38F55C-C71F-4587-9012-EACF61FB6AAB}"/>
-    <hyperlink ref="H81" r:id="rId78" tooltip="https://openai.com/research/whisper" xr:uid="{7D99FCE1-4203-4888-B025-38453749299D}"/>
-    <hyperlink ref="H50" r:id="rId79" tooltip="https://speechify.com" xr:uid="{E6203BDC-5D9A-45C1-818F-5E837E6BFED0}"/>
-    <hyperlink ref="H51" r:id="rId80" tooltip="https://elevenlabs.io" xr:uid="{338F2AE8-B81D-4804-99DD-93DC835F4011}"/>
-    <hyperlink ref="H52" r:id="rId81" tooltip="https://murf.ai" xr:uid="{B64ED61D-A1AF-4D7E-A71E-68F72D42FC64}"/>
-    <hyperlink ref="H82" r:id="rId82" tooltip="https://cloud.google.com/speech-to-text" xr:uid="{B1D179AF-A8DA-43B5-9947-9CDEEF04277C}"/>
-    <hyperlink ref="H83" r:id="rId83" tooltip="https://azure.microsoft.com/en-us/products/cognitive-services/speech-services" xr:uid="{A44A6A53-3463-4052-A6EF-31C399B7C6FC}"/>
-    <hyperlink ref="H53" r:id="rId84" tooltip="https://www.descript.com" xr:uid="{3C6CD607-9A0A-411E-9923-FBE483D87B3E}"/>
-    <hyperlink ref="H137" r:id="rId85" tooltip="https://www.descript.com" xr:uid="{5F1A177C-F78D-4DC5-8F9B-791FA9465F6F}"/>
-    <hyperlink ref="H54" r:id="rId86" tooltip="https://www.audacityteam.org" xr:uid="{52D9D85F-AACF-4881-BEB1-3F6CD3C2D6F9}"/>
-    <hyperlink ref="H55" r:id="rId87" tooltip="https://podcast.adobe.com" xr:uid="{6F173A83-BC69-4D1D-A6DF-562626FDB43A}"/>
-    <hyperlink ref="H56" r:id="rId88" tooltip="https://cleanvoice.ai" xr:uid="{6C935DDA-FDA6-417F-A8B7-8DB9875AA363}"/>
-    <hyperlink ref="H57" r:id="rId89" tooltip="https://krisp.ai" xr:uid="{58242B84-311C-4376-BB96-4E868B12A20D}"/>
-    <hyperlink ref="H58" r:id="rId90" tooltip="https://www.voicemod.net" xr:uid="{EA7E11FC-8B5D-4E29-A3EA-CBDBB2976E89}"/>
-    <hyperlink ref="H59" r:id="rId91" tooltip="https://www.aiva.ai" xr:uid="{AFDCFF96-2BE2-48A0-8C1E-D059EBD51A4B}"/>
-    <hyperlink ref="H60" r:id="rId92" tooltip="https://soundraw.io" xr:uid="{EB71BDA8-8448-495F-9321-344F7C2D5E7E}"/>
-    <hyperlink ref="H61" r:id="rId93" tooltip="https://www.beatoven.ai" xr:uid="{58E6C4AE-72A1-41F3-BB0B-5111A7BC4860}"/>
-    <hyperlink ref="H62" r:id="rId94" tooltip="https://mubert.com" xr:uid="{26B11047-C51D-46F6-98B2-6C9E77F9CAC2}"/>
-    <hyperlink ref="H63" r:id="rId95" tooltip="https://www.ampermusic.com" xr:uid="{98F0CADE-171E-4EDB-BF0B-26231820EC1E}"/>
-    <hyperlink ref="H64" r:id="rId96" tooltip="https://boomy.com" xr:uid="{763A1CEC-E93B-4102-B85C-4BEE9DA28E01}"/>
-    <hyperlink ref="H65" r:id="rId97" tooltip="https://suno.com" xr:uid="{9975DDE6-E7A0-49CE-BF38-7892CBB84BB3}"/>
-    <hyperlink ref="H138" r:id="rId98" tooltip="https://runwayml.com" xr:uid="{5E1DBC08-4F2D-4241-968A-B9F6F4016BBB}"/>
-    <hyperlink ref="H139" r:id="rId99" tooltip="https://pika.art" xr:uid="{DDCDEAB7-2A6B-43BA-864F-82C540D36DE6}"/>
-    <hyperlink ref="H140" r:id="rId100" tooltip="https://openai.com/sora" xr:uid="{5BB910ED-C19C-4DA2-8FE2-2CD4AFA3472E}"/>
-    <hyperlink ref="H141" r:id="rId101" tooltip="https://www.synthesia.io" xr:uid="{9D9E8FBE-C201-4FFE-82D0-F5096D0501F8}"/>
-    <hyperlink ref="H142" r:id="rId102" tooltip="https://www.heygen.com" xr:uid="{C91E2456-930A-4098-AF75-22A09B32F19A}"/>
-    <hyperlink ref="H143" r:id="rId103" tooltip="https://elai.io" xr:uid="{04EEDDC6-8768-4C48-AE99-F8BBE764BA90}"/>
-    <hyperlink ref="H144" r:id="rId104" tooltip="https://lumen5.com" xr:uid="{0627FD8D-72CC-4C1A-8043-32FA808F18CC}"/>
-    <hyperlink ref="H145" r:id="rId105" tooltip="https://animoto.com" xr:uid="{03A8DA81-1889-4888-B430-56EB474E9EA3}"/>
-    <hyperlink ref="H146" r:id="rId106" tooltip="https://animoto.com" xr:uid="{185893A8-DBCE-4A84-AB60-096845D8393E}"/>
-    <hyperlink ref="H147" r:id="rId107" tooltip="https://www.magisto.com" xr:uid="{9B68B1F4-D986-44C6-9BDA-1F25B468137A}"/>
-    <hyperlink ref="H148" r:id="rId108" tooltip="https://www.wisecut.video" xr:uid="{C025928E-DA37-4AF5-ABAE-81CC3627DA33}"/>
+    <hyperlink ref="H68" r:id="rId1" tooltip="https://loveable.dev" xr:uid="{2EFA6E8A-EE55-4697-BDB8-109197960BD3}"/>
+    <hyperlink ref="H69" r:id="rId2" tooltip="https://bolt.new" xr:uid="{3197816D-6A7C-4543-90A0-855F562E8122}"/>
+    <hyperlink ref="H70" r:id="rId3" tooltip="https://www.glideapps.com" xr:uid="{CC327F60-5504-4B85-B5D4-3C7E0679B113}"/>
+    <hyperlink ref="H97" r:id="rId4" tooltip="https://www.glideapps.com" xr:uid="{8DC8C428-1CAD-4055-8792-F809F5C383A1}"/>
+    <hyperlink ref="H71" r:id="rId5" tooltip="https://www.softr.io" xr:uid="{B5CF3CD5-A3A7-4CBC-A250-8907DE6F4284}"/>
+    <hyperlink ref="H98" r:id="rId6" tooltip="https://www.softr.io" xr:uid="{EBBAFE39-EA82-4638-964A-E8AD71558FBE}"/>
+    <hyperlink ref="H72" r:id="rId7" tooltip="https://flutterflow.io" xr:uid="{194F58D7-1B1A-4EE3-A88D-010B6E799121}"/>
+    <hyperlink ref="H99" r:id="rId8" tooltip="https://flutterflow.io" xr:uid="{B2224097-090A-4D82-98AB-9AA58594AB13}"/>
+    <hyperlink ref="H73" r:id="rId9" tooltip="https://bubble.io" xr:uid="{DC2141A8-2DB2-4867-B308-1DCCE38D19CD}"/>
+    <hyperlink ref="H100" r:id="rId10" tooltip="https://bubble.io" xr:uid="{AA9ACDB1-88C1-4F7F-8781-25C2220FC8C9}"/>
+    <hyperlink ref="H74" r:id="rId11" tooltip="https://www.adalo.com" xr:uid="{A5A5283B-D9B0-406C-9B56-143E85EFFBA0}"/>
+    <hyperlink ref="H101" r:id="rId12" tooltip="https://www.adalo.com" xr:uid="{83C3E907-2A95-4537-B574-77158EF1D383}"/>
+    <hyperlink ref="H75" r:id="rId13" tooltip="https://opal.so" xr:uid="{4A863EFD-279F-4372-8217-5AE2EB5055BE}"/>
+    <hyperlink ref="H102" r:id="rId14" tooltip="https://opal.so" xr:uid="{CB901FD0-1FD7-4A93-ABFB-3D5BC2A7F007}"/>
+    <hyperlink ref="H76" r:id="rId15" tooltip="https://base44.com" xr:uid="{22D638CE-5D47-41F0-9F61-DCFD0C275F22}"/>
+    <hyperlink ref="H77" r:id="rId16" tooltip="https://cursor.com" xr:uid="{C6A700D9-173B-4645-8B1B-337CE5E3E4CC}"/>
+    <hyperlink ref="H78" r:id="rId17" tooltip="https://code.visualstudio.com" xr:uid="{ADFF23CF-D283-4105-AD60-2CBEA3FE5D12}"/>
+    <hyperlink ref="H103" r:id="rId18" tooltip="https://www.canva.com" xr:uid="{10F7603E-154E-49FA-800F-33B9E1FFC9BF}"/>
+    <hyperlink ref="H104" r:id="rId19" tooltip="https://genial.ly" xr:uid="{1EA765A1-F06E-440E-A33F-C7F663C24287}"/>
+    <hyperlink ref="H106" r:id="rId20" tooltip="https://www.figma.com" xr:uid="{818DC6BE-D6B8-49AF-A88B-6EB1AB26BE06}"/>
+    <hyperlink ref="H113" r:id="rId21" tooltip="https://www.arcgis.com" xr:uid="{FE5505E0-4110-48C3-95F6-5E6D2852AE12}"/>
+    <hyperlink ref="H114" r:id="rId22" tooltip="https://qgis.org" xr:uid="{70C5A5AE-FDDE-4B90-8DBE-3892770181D8}"/>
+    <hyperlink ref="H115" r:id="rId23" tooltip="https://qgis.org" xr:uid="{FC0B4293-A6F4-48BC-ADD7-DEC086020AD8}"/>
+    <hyperlink ref="H116" r:id="rId24" tooltip="https://atlas.co/" xr:uid="{DEB4E37C-A84E-4598-92CB-0483162D10C7}"/>
+    <hyperlink ref="H117" r:id="rId25" tooltip="https://atlas.co/" xr:uid="{8F29172C-2002-43DD-A229-F6F5E4028CC8}"/>
+    <hyperlink ref="H118" r:id="rId26" tooltip="https://lookerstudio.google.com" xr:uid="{F54D28CA-B97C-4286-9A75-113E25318EE1}"/>
+    <hyperlink ref="H119" r:id="rId27" tooltip="https://lookerstudio.google.com" xr:uid="{9EE928F8-7C2D-401C-927E-78970F4BAD2F}"/>
+    <hyperlink ref="H120" r:id="rId28" tooltip="https://flourish.studio" xr:uid="{A7BE08FE-7F95-4B52-B585-945451225F81}"/>
+    <hyperlink ref="H121" r:id="rId29" tooltip="https://flourish.studio" xr:uid="{68042744-E55E-4A06-BF5B-300431683387}"/>
+    <hyperlink ref="H122" r:id="rId30" tooltip="https://public.tableau.com" xr:uid="{A067B163-C06B-4E3D-9767-018D523CAB20}"/>
+    <hyperlink ref="H123" r:id="rId31" tooltip="https://public.tableau.com" xr:uid="{53434193-1390-466F-AAC1-77D0E608FE28}"/>
+    <hyperlink ref="H124" r:id="rId32" tooltip="https://spark.apache.org" xr:uid="{DADE9516-5C45-4C3D-BAAE-773200A4BCB5}"/>
+    <hyperlink ref="H125" r:id="rId33" tooltip="https://powerbi.microsoft.com" xr:uid="{AFA5419D-F24B-462D-9912-2989F854DC19}"/>
+    <hyperlink ref="H126" r:id="rId34" tooltip="https://powerbi.microsoft.com" xr:uid="{F13A7F61-6632-46A8-8AC4-0C6265038A79}"/>
+    <hyperlink ref="H127" r:id="rId35" tooltip="https://infogram.com" xr:uid="{3E2D2227-117F-4A21-8BB7-B4D0863B4DC0}"/>
+    <hyperlink ref="H128" r:id="rId36" tooltip="https://infogram.com" xr:uid="{8854A09D-0493-432A-969F-38F71C2892FD}"/>
+    <hyperlink ref="H129" r:id="rId37" tooltip="https://whimsical.com" xr:uid="{194CF671-8748-4BA9-86B5-23BF4BA0175D}"/>
+    <hyperlink ref="H131" r:id="rId38" tooltip="https://piktochart.com" xr:uid="{C598D009-5EB6-49F8-9CBA-4D83B1D716B1}"/>
+    <hyperlink ref="H132" r:id="rId39" tooltip="https://www.midjourney.com" xr:uid="{CA40C142-8D75-4E5F-AE1B-0CA1238A52FF}"/>
+    <hyperlink ref="H133" r:id="rId40" tooltip="https://openai.com/dall-e" xr:uid="{D0B72634-3971-4BDC-A3D9-27E5D0DF815B}"/>
+    <hyperlink ref="H134" r:id="rId41" tooltip="https://www.bing.com/images/create" xr:uid="{A4A2F19E-FA37-48DA-BF61-FBB159D2A904}"/>
+    <hyperlink ref="H135" r:id="rId42" tooltip="https://designer.microsoft.com" xr:uid="{246C1D67-5205-4185-A0D5-D9FF5723C10E}"/>
+    <hyperlink ref="H136" r:id="rId43" tooltip="https://www.freepik.com" xr:uid="{346635FA-57A3-43F1-988F-7059FC6DBA5B}"/>
+    <hyperlink ref="H137" r:id="rId44" tooltip="https://stability.ai" xr:uid="{D4484F3E-C645-44C2-8070-18896E5A9B2C}"/>
+    <hyperlink ref="H138" r:id="rId45" tooltip="https://ideogram.ai" xr:uid="{7FE7709E-0AB1-4B6A-8BF5-D89BC3A6CFD0}"/>
+    <hyperlink ref="H139" r:id="rId46" tooltip="https://firefly.adobe.com" xr:uid="{05F569C3-17CE-4F23-93EE-D6128861C1D8}"/>
+    <hyperlink ref="H140" r:id="rId47" tooltip="https://flux-ai.io" xr:uid="{C368C4E5-B165-409B-91E6-20194E4C4464}"/>
+    <hyperlink ref="H141" r:id="rId48" tooltip="https://leonardo.ai" xr:uid="{FDA67C81-7FCA-4EFD-ABBE-B441382DCFAF}"/>
+    <hyperlink ref="H142" r:id="rId49" tooltip="https://leonardo.ai" xr:uid="{506D8849-3417-4560-BD8B-D2F9F54BEA7B}"/>
+    <hyperlink ref="H79" r:id="rId50" tooltip="https://chat.openai.com" xr:uid="{B995E048-988D-45BB-8F06-06856067BD5E}"/>
+    <hyperlink ref="H86" r:id="rId51" tooltip="https://chat.openai.com" xr:uid="{AA121F67-336E-4919-8E3A-D99749B3E4E1}"/>
+    <hyperlink ref="H18" r:id="rId52" tooltip="https://chat.openai.com" xr:uid="{E759BB9D-FF98-4E23-84F5-748001A55D12}"/>
+    <hyperlink ref="H19" r:id="rId53" tooltip="https://chat.openai.com" xr:uid="{51825F74-22CE-41F2-A57C-AF0FA33723E6}"/>
+    <hyperlink ref="H80" r:id="rId54" tooltip="https://chat.openai.com" xr:uid="{86028432-10E5-456D-BB43-3EA9FD255B4E}"/>
+    <hyperlink ref="H87" r:id="rId55" tooltip="https://chat.openai.com" xr:uid="{74EDDC75-629C-44D5-9458-44474200D463}"/>
+    <hyperlink ref="H20" r:id="rId56" tooltip="https://chat.openai.com" xr:uid="{3D644364-7C14-4993-B5B9-00C19D776492}"/>
+    <hyperlink ref="H21" r:id="rId57" tooltip="https://chat.openai.com" xr:uid="{24A9C542-32C6-4374-95C5-929B9D93CFFC}"/>
+    <hyperlink ref="H81" r:id="rId58" tooltip="https://claude.ai" xr:uid="{6418A2A9-3AA0-4C0A-AB8B-B86A11DA9ACC}"/>
+    <hyperlink ref="H88" r:id="rId59" tooltip="https://claude.ai" xr:uid="{3025F29F-F2E0-49B2-84B2-C6E06386B046}"/>
+    <hyperlink ref="H22" r:id="rId60" tooltip="https://claude.ai" xr:uid="{607F82DB-2DD3-4D8E-9079-4BB70CD2B7CC}"/>
+    <hyperlink ref="H23" r:id="rId61" tooltip="https://claude.ai" xr:uid="{4AB27610-033E-4197-84EF-7C572FF8EECD}"/>
+    <hyperlink ref="H89" r:id="rId62" tooltip="https://gemini.google.com" xr:uid="{40F1D2A9-1538-452C-B60C-53D2670C6D5D}"/>
+    <hyperlink ref="H82" r:id="rId63" tooltip="https://gemini.google.com" xr:uid="{9D5B7E5C-3616-4B26-ABC7-225F6D63CCA9}"/>
+    <hyperlink ref="H24" r:id="rId64" tooltip="https://gemini.google.com" xr:uid="{B57D5A7C-7545-45F3-B847-2ABA05A13DA5}"/>
+    <hyperlink ref="H25" r:id="rId65" tooltip="https://gemini.google.com" xr:uid="{0D1BE037-60FD-43AA-B229-A8AE63BDB0FD}"/>
+    <hyperlink ref="H26" r:id="rId66" tooltip="https://www.notion.so" xr:uid="{02D0D6EC-AD3D-417B-829E-839D7A5A0E2E}"/>
+    <hyperlink ref="H90" r:id="rId67" tooltip="https://www.copy.ai" xr:uid="{665B537D-4C94-4424-8BB8-61D921067BA2}"/>
+    <hyperlink ref="H91" r:id="rId68" tooltip="https://www.jasper.ai" xr:uid="{924F1E82-46CE-4796-BEB0-15FC9EF021BA}"/>
+    <hyperlink ref="H92" r:id="rId69" tooltip="https://writesonic.com" xr:uid="{A3AA0951-764E-4CDA-8D1D-09B58661F5FD}"/>
+    <hyperlink ref="H93" r:id="rId70" tooltip="https://www.sudowrite.com" xr:uid="{24711D49-0EAB-43AC-AD8B-07B92329D69A}"/>
+    <hyperlink ref="H94" r:id="rId71" tooltip="https://www.grammarly.com" xr:uid="{BECBFB7F-4EDD-47E0-B4B3-05CA5130C716}"/>
+    <hyperlink ref="H95" r:id="rId72" tooltip="https://prowritingaid.com" xr:uid="{A7F0ACA8-429E-45A3-9EDC-BB9A15752BEC}"/>
+    <hyperlink ref="H96" r:id="rId73" tooltip="https://scribehow.com" xr:uid="{ACA0D89F-D53B-4976-8C6B-4017C47EB63D}"/>
+    <hyperlink ref="H47" r:id="rId74" tooltip="https://wisprflow.ai/" xr:uid="{452BBAC1-14CB-46D2-A4BD-82E457B8CE33}"/>
+    <hyperlink ref="H48" r:id="rId75" tooltip="https://speechnotes.co/" xr:uid="{A2E4F84D-1E61-41A1-9200-05025EF826C8}"/>
+    <hyperlink ref="H49" r:id="rId76" tooltip="https://www.naturalreaders.com/" xr:uid="{7C30326D-A207-4121-AA37-2D93466EF4E0}"/>
+    <hyperlink ref="H50" r:id="rId77" tooltip="https://openai.com/research/whisper" xr:uid="{1F38F55C-C71F-4587-9012-EACF61FB6AAB}"/>
+    <hyperlink ref="H83" r:id="rId78" tooltip="https://openai.com/research/whisper" xr:uid="{7D99FCE1-4203-4888-B025-38453749299D}"/>
+    <hyperlink ref="H51" r:id="rId79" tooltip="https://speechify.com" xr:uid="{E6203BDC-5D9A-45C1-818F-5E837E6BFED0}"/>
+    <hyperlink ref="H52" r:id="rId80" tooltip="https://elevenlabs.io" xr:uid="{338F2AE8-B81D-4804-99DD-93DC835F4011}"/>
+    <hyperlink ref="H53" r:id="rId81" tooltip="https://murf.ai" xr:uid="{B64ED61D-A1AF-4D7E-A71E-68F72D42FC64}"/>
+    <hyperlink ref="H84" r:id="rId82" tooltip="https://cloud.google.com/speech-to-text" xr:uid="{B1D179AF-A8DA-43B5-9947-9CDEEF04277C}"/>
+    <hyperlink ref="H85" r:id="rId83" tooltip="https://azure.microsoft.com/en-us/products/cognitive-services/speech-services" xr:uid="{A44A6A53-3463-4052-A6EF-31C399B7C6FC}"/>
+    <hyperlink ref="H54" r:id="rId84" tooltip="https://www.descript.com" xr:uid="{3C6CD607-9A0A-411E-9923-FBE483D87B3E}"/>
+    <hyperlink ref="H143" r:id="rId85" tooltip="https://www.descript.com" xr:uid="{5F1A177C-F78D-4DC5-8F9B-791FA9465F6F}"/>
+    <hyperlink ref="H55" r:id="rId86" tooltip="https://www.audacityteam.org" xr:uid="{52D9D85F-AACF-4881-BEB1-3F6CD3C2D6F9}"/>
+    <hyperlink ref="H56" r:id="rId87" tooltip="https://podcast.adobe.com" xr:uid="{6F173A83-BC69-4D1D-A6DF-562626FDB43A}"/>
+    <hyperlink ref="H57" r:id="rId88" tooltip="https://cleanvoice.ai" xr:uid="{6C935DDA-FDA6-417F-A8B7-8DB9875AA363}"/>
+    <hyperlink ref="H58" r:id="rId89" tooltip="https://krisp.ai" xr:uid="{58242B84-311C-4376-BB96-4E868B12A20D}"/>
+    <hyperlink ref="H59" r:id="rId90" tooltip="https://www.voicemod.net" xr:uid="{EA7E11FC-8B5D-4E29-A3EA-CBDBB2976E89}"/>
+    <hyperlink ref="H60" r:id="rId91" tooltip="https://www.aiva.ai" xr:uid="{AFDCFF96-2BE2-48A0-8C1E-D059EBD51A4B}"/>
+    <hyperlink ref="H61" r:id="rId92" tooltip="https://soundraw.io" xr:uid="{EB71BDA8-8448-495F-9321-344F7C2D5E7E}"/>
+    <hyperlink ref="H62" r:id="rId93" tooltip="https://www.beatoven.ai" xr:uid="{58E6C4AE-72A1-41F3-BB0B-5111A7BC4860}"/>
+    <hyperlink ref="H63" r:id="rId94" tooltip="https://mubert.com" xr:uid="{26B11047-C51D-46F6-98B2-6C9E77F9CAC2}"/>
+    <hyperlink ref="H64" r:id="rId95" tooltip="https://www.ampermusic.com" xr:uid="{98F0CADE-171E-4EDB-BF0B-26231820EC1E}"/>
+    <hyperlink ref="H65" r:id="rId96" tooltip="https://boomy.com" xr:uid="{763A1CEC-E93B-4102-B85C-4BEE9DA28E01}"/>
+    <hyperlink ref="H66" r:id="rId97" tooltip="https://suno.com" xr:uid="{9975DDE6-E7A0-49CE-BF38-7892CBB84BB3}"/>
+    <hyperlink ref="H144" r:id="rId98" tooltip="https://runwayml.com" xr:uid="{5E1DBC08-4F2D-4241-968A-B9F6F4016BBB}"/>
+    <hyperlink ref="H145" r:id="rId99" tooltip="https://pika.art" xr:uid="{DDCDEAB7-2A6B-43BA-864F-82C540D36DE6}"/>
+    <hyperlink ref="H146" r:id="rId100" tooltip="https://openai.com/sora" xr:uid="{5BB910ED-C19C-4DA2-8FE2-2CD4AFA3472E}"/>
+    <hyperlink ref="H147" r:id="rId101" tooltip="https://www.synthesia.io" xr:uid="{9D9E8FBE-C201-4FFE-82D0-F5096D0501F8}"/>
+    <hyperlink ref="H148" r:id="rId102" tooltip="https://www.heygen.com" xr:uid="{C91E2456-930A-4098-AF75-22A09B32F19A}"/>
+    <hyperlink ref="H149" r:id="rId103" tooltip="https://elai.io" xr:uid="{04EEDDC6-8768-4C48-AE99-F8BBE764BA90}"/>
+    <hyperlink ref="H150" r:id="rId104" tooltip="https://lumen5.com" xr:uid="{0627FD8D-72CC-4C1A-8043-32FA808F18CC}"/>
+    <hyperlink ref="H151" r:id="rId105" tooltip="https://animoto.com" xr:uid="{03A8DA81-1889-4888-B430-56EB474E9EA3}"/>
+    <hyperlink ref="H152" r:id="rId106" tooltip="https://animoto.com" xr:uid="{185893A8-DBCE-4A84-AB60-096845D8393E}"/>
+    <hyperlink ref="H153" r:id="rId107" tooltip="https://www.magisto.com" xr:uid="{9B68B1F4-D986-44C6-9BDA-1F25B468137A}"/>
+    <hyperlink ref="H155" r:id="rId108" tooltip="https://www.wisecut.video" xr:uid="{C025928E-DA37-4AF5-ABAE-81CC3627DA33}"/>
     <hyperlink ref="H2" r:id="rId109" tooltip="https://unity.com" xr:uid="{ACE7C12C-ACCB-485B-8548-80D76C3F7007}"/>
     <hyperlink ref="H3" r:id="rId110" tooltip="https://www.unrealengine.com" xr:uid="{8C5FD609-31F0-4887-B6F4-FD950D44ED26}"/>
     <hyperlink ref="H4" r:id="rId111" tooltip="https://www.twinmotion.com" xr:uid="{00903C70-E53E-4E5C-9619-C0E26F3AEDB8}"/>
@@ -8869,38 +9226,45 @@
     <hyperlink ref="H13" r:id="rId120" tooltip="https://sketchfab.com" xr:uid="{4E33E292-A507-45A6-B568-C784DC7D4EDE}"/>
     <hyperlink ref="H14" r:id="rId121" tooltip="https://www.adobe.com/products/substance3d.html" xr:uid="{0E1C059A-957A-4383-B3AD-65238DA0DBD7}"/>
     <hyperlink ref="H15" r:id="rId122" tooltip="https://www.nvidia.com/en-us/omniverse" xr:uid="{91731304-B25D-48CE-8F46-CAC8AA2767FF}"/>
-    <hyperlink ref="H26" r:id="rId123" tooltip="https://www.notion.so" xr:uid="{320769C3-B6B8-4CFE-A9DD-50E85139950B}"/>
-    <hyperlink ref="H27" r:id="rId124" tooltip="https://coda.io" xr:uid="{922DCD50-307B-4050-AD87-CE4558EDB88D}"/>
-    <hyperlink ref="H28" r:id="rId125" tooltip="https://obsidian.md" xr:uid="{F2BBBE20-46B1-40C4-B631-E6C59DC00D98}"/>
-    <hyperlink ref="H29" r:id="rId126" tooltip="https://www.zotero.org" xr:uid="{AC907A66-B49A-4D1F-92F4-B72C75B61E30}"/>
-    <hyperlink ref="H30" r:id="rId127" tooltip="https://endnote.com" xr:uid="{1BD4B616-C287-4C3D-AD6D-691079E4C494}"/>
-    <hyperlink ref="H31" r:id="rId128" tooltip="https://www.connectedpapers.com" xr:uid="{E2EBB6A6-878D-4BCA-A476-51DDA8D86B40}"/>
-    <hyperlink ref="H32" r:id="rId129" tooltip="https://mindgrasp.ai" xr:uid="{ADA62B32-981F-4B55-AE06-78B9A3DC66DF}"/>
-    <hyperlink ref="H33" r:id="rId130" tooltip="https://curipod.com" xr:uid="{6458E42C-0F7C-4DA2-BC00-B57DD879E55B}"/>
-    <hyperlink ref="H34" r:id="rId131" tooltip="https://edpuzzle.com" xr:uid="{E622D8C4-4734-4232-9F34-EDB33E0A0268}"/>
-    <hyperlink ref="H35" r:id="rId132" tooltip="https://nearpod.com" xr:uid="{0027EAB2-D90A-4118-987A-02415086BC3E}"/>
-    <hyperlink ref="H36" r:id="rId133" tooltip="https://elicit.com" xr:uid="{BF0D1E94-0562-4A7D-B350-FBAD05BFF9C8}"/>
-    <hyperlink ref="H37" r:id="rId134" tooltip="https://scispace.com" xr:uid="{70E85D5F-2273-4E24-8C5E-BC088DC07FA3}"/>
-    <hyperlink ref="H38" r:id="rId135" tooltip="https://www.scholarcy.com" xr:uid="{B4BDC9D1-501C-4452-86F2-B554EB4CAA0A}"/>
-    <hyperlink ref="H39" r:id="rId136" tooltip="https://www.perplexity.ai" xr:uid="{009E1089-893F-44E1-8C79-8A05C15EFBCC}"/>
-    <hyperlink ref="H40" r:id="rId137" tooltip="https://www.explainpaper.com" xr:uid="{96648B33-115B-4EE6-AFDC-4782EF895252}"/>
-    <hyperlink ref="H41" r:id="rId138" tooltip="https://paperpal.com" xr:uid="{3E7EE01B-051B-4181-8FCF-132A35D318D7}"/>
-    <hyperlink ref="H42" r:id="rId139" tooltip="https://akiflow.com" xr:uid="{D0CF9287-E747-4159-BC66-865C04B8AEDA}"/>
-    <hyperlink ref="H43" r:id="rId140" tooltip="https://todo.microsoft.com" xr:uid="{C8945B0D-CC9E-4D31-92A7-815559BA4EBE}"/>
-    <hyperlink ref="H44" r:id="rId141" tooltip="https://tasks.google.com" xr:uid="{497BFC27-962A-4CFD-869B-045D9B59187B}"/>
-    <hyperlink ref="H45" r:id="rId142" tooltip="https://clickup.com" xr:uid="{4EAA5608-09B9-4948-AFF5-816FDCBD6067}"/>
+    <hyperlink ref="H27" r:id="rId123" tooltip="https://www.notion.so" xr:uid="{320769C3-B6B8-4CFE-A9DD-50E85139950B}"/>
+    <hyperlink ref="H28" r:id="rId124" tooltip="https://coda.io" xr:uid="{922DCD50-307B-4050-AD87-CE4558EDB88D}"/>
+    <hyperlink ref="H29" r:id="rId125" tooltip="https://obsidian.md" xr:uid="{F2BBBE20-46B1-40C4-B631-E6C59DC00D98}"/>
+    <hyperlink ref="H30" r:id="rId126" tooltip="https://www.zotero.org" xr:uid="{AC907A66-B49A-4D1F-92F4-B72C75B61E30}"/>
+    <hyperlink ref="H31" r:id="rId127" tooltip="https://endnote.com" xr:uid="{1BD4B616-C287-4C3D-AD6D-691079E4C494}"/>
+    <hyperlink ref="H32" r:id="rId128" tooltip="https://www.connectedpapers.com" xr:uid="{E2EBB6A6-878D-4BCA-A476-51DDA8D86B40}"/>
+    <hyperlink ref="H33" r:id="rId129" tooltip="https://mindgrasp.ai" xr:uid="{ADA62B32-981F-4B55-AE06-78B9A3DC66DF}"/>
+    <hyperlink ref="H34" r:id="rId130" tooltip="https://curipod.com" xr:uid="{6458E42C-0F7C-4DA2-BC00-B57DD879E55B}"/>
+    <hyperlink ref="H35" r:id="rId131" tooltip="https://edpuzzle.com" xr:uid="{E622D8C4-4734-4232-9F34-EDB33E0A0268}"/>
+    <hyperlink ref="H36" r:id="rId132" tooltip="https://nearpod.com" xr:uid="{0027EAB2-D90A-4118-987A-02415086BC3E}"/>
+    <hyperlink ref="H37" r:id="rId133" tooltip="https://elicit.com" xr:uid="{BF0D1E94-0562-4A7D-B350-FBAD05BFF9C8}"/>
+    <hyperlink ref="H38" r:id="rId134" tooltip="https://scispace.com" xr:uid="{70E85D5F-2273-4E24-8C5E-BC088DC07FA3}"/>
+    <hyperlink ref="H39" r:id="rId135" tooltip="https://www.scholarcy.com" xr:uid="{B4BDC9D1-501C-4452-86F2-B554EB4CAA0A}"/>
+    <hyperlink ref="H40" r:id="rId136" tooltip="https://www.perplexity.ai" xr:uid="{009E1089-893F-44E1-8C79-8A05C15EFBCC}"/>
+    <hyperlink ref="H41" r:id="rId137" tooltip="https://www.explainpaper.com" xr:uid="{96648B33-115B-4EE6-AFDC-4782EF895252}"/>
+    <hyperlink ref="H42" r:id="rId138" tooltip="https://paperpal.com" xr:uid="{3E7EE01B-051B-4181-8FCF-132A35D318D7}"/>
+    <hyperlink ref="H43" r:id="rId139" tooltip="https://akiflow.com" xr:uid="{D0CF9287-E747-4159-BC66-865C04B8AEDA}"/>
+    <hyperlink ref="H44" r:id="rId140" tooltip="https://todo.microsoft.com" xr:uid="{C8945B0D-CC9E-4D31-92A7-815559BA4EBE}"/>
+    <hyperlink ref="H45" r:id="rId141" tooltip="https://tasks.google.com" xr:uid="{497BFC27-962A-4CFD-869B-045D9B59187B}"/>
+    <hyperlink ref="H46" r:id="rId142" tooltip="https://clickup.com" xr:uid="{4EAA5608-09B9-4948-AFF5-816FDCBD6067}"/>
     <hyperlink ref="H16" r:id="rId143" tooltip="https://www.daz3d.com" xr:uid="{CC266CF2-95B0-4F9F-A886-9D2CCB234067}"/>
+    <hyperlink ref="H154" r:id="rId144" tooltip="https://artlist.io" xr:uid="{71F56C7D-1225-4E47-BBA9-499A8EAE2A3E}"/>
+    <hyperlink ref="H67" r:id="rId145" tooltip="https://artlist.io" xr:uid="{0CBF567B-132F-4D63-96E5-517FD6348D8A}"/>
+    <hyperlink ref="H109" r:id="rId146" tooltip="https://julius.ai" xr:uid="{015C1B30-150E-458F-A704-8C6B7FDB5BC4}"/>
+    <hyperlink ref="H110" r:id="rId147" tooltip="https://julius.ai" xr:uid="{A15FC7DA-6869-4B9E-AA32-F3638DEA237A}"/>
+    <hyperlink ref="H17" r:id="rId148" tooltip="https://julius.ai" xr:uid="{F9752F37-63E0-4DE2-8268-930236258728}"/>
+    <hyperlink ref="H108" r:id="rId149" tooltip="https://excalidraw.com" xr:uid="{DEE97AF5-104A-46FE-A09B-BEF19B399ABA}"/>
+    <hyperlink ref="H105" r:id="rId150" tooltip="https://www.beautiful.ai" xr:uid="{D674A0CD-CBDB-4C3A-A71A-44A3A3A0B1D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId144"/>
-  <drawing r:id="rId145"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId151"/>
+  <drawing r:id="rId152"/>
   <tableParts count="1">
-    <tablePart r:id="rId146"/>
+    <tablePart r:id="rId153"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId147"/>
+        <x14:slicer r:id="rId154"/>
       </x14:slicerList>
     </ext>
   </extLst>
